--- a/arch/SIRS.xlsx
+++ b/arch/SIRS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,10 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>0.99</t>
   </si>
   <si>
-    <t>1.0000</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -70,9 +73,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Выбранная модель:</t>
   </si>
   <si>
-    <t>Рунге-Кутта 4-го порядка</t>
+    <t>Метод Эйлера</t>
   </si>
   <si>
     <t>SIRS</t>
@@ -188,7 +188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Модель SIRS (Рунге-Кутта 4-го порядка)</a:t>
+              <a:t>Модель SIRS (Метод Эйлера)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -535,307 +535,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9048782663723889</c:v>
+                  <c:v>0.01197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8190030821001223</c:v>
+                  <c:v>0.01431742473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.741588107138262</c:v>
+                  <c:v>0.01711001941836488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6718596672173414</c:v>
+                  <c:v>0.02042573470533129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6090842938324876</c:v>
+                  <c:v>0.02435341369081648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5525807997576825</c:v>
+                  <c:v>0.02899311520708202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5017242516788541</c:v>
+                  <c:v>0.03445584489876409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4559457050249747</c:v>
+                  <c:v>0.04086239177790489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4147297728006327</c:v>
+                  <c:v>0.04834088879439211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3776111571295973</c:v>
+                  <c:v>0.05702264414566834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3441707644546216</c:v>
+                  <c:v>0.06703574803242743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3140317461097991</c:v>
+                  <c:v>0.07849598271015398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2868556496154159</c:v>
+                  <c:v>0.0914947010676717</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2623387772167237</c:v>
+                  <c:v>0.1060836490039329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2402087972500888</c:v>
+                  <c:v>0.122257243355837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.220221624630775</c:v>
+                  <c:v>0.1399336014071967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2021585700325833</c:v>
+                  <c:v>0.1589365970231654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1858237479923379</c:v>
+                  <c:v>0.1789822180394909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.171041729217694</c:v>
+                  <c:v>0.1996731984406553</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1576554200347679</c:v>
+                  <c:v>0.2205058640991705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1455241511252063</c:v>
+                  <c:v>0.2408919525564736</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1345219578316118</c:v>
+                  <c:v>0.2601956900778851</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1245360349662178</c:v>
+                  <c:v>0.2777829731554664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1154653500015229</c:v>
+                  <c:v>0.2930760243863861</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1072193996064581</c:v>
+                  <c:v>0.3056046322071989</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.09971709562760835</c:v>
+                  <c:v>0.315045090552722</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.09288576774744657</c:v>
+                  <c:v>0.3212404783229637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.08666027114800058</c:v>
+                  <c:v>0.3242001720836473</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.08098218855034302</c:v>
+                  <c:v>0.3240809800191888</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.07579911697801983</c:v>
+                  <c:v>0.3211555589692259</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.07106403050178338</c:v>
+                  <c:v>0.3157750475240356</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.06673471106299712</c:v>
+                  <c:v>0.3083322160747158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.06277324024518685</c:v>
+                  <c:v>0.2992296108991014</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.05914554557007143</c:v>
+                  <c:v>0.2888550119071168</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.05582099553939948</c:v>
+                  <c:v>0.2775646753590283</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.05277203823082512</c:v>
+                  <c:v>0.26567359177616</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.04997387878881554</c:v>
+                  <c:v>0.2534513662476721</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.04740419163415673</c:v>
+                  <c:v>0.2411221782256874</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0450428636518937</c:v>
+                  <c:v>0.2288674160883179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.04287176501125617</c:v>
+                  <c:v>0.2168298518898026</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.04087454462585557</c:v>
+                  <c:v>0.2051185187532971</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.03903644758157365</c:v>
+                  <c:v>0.1938137200603282</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.03734415214627153</c:v>
+                  <c:v>0.1829718129858855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.03578562423269292</c:v>
+                  <c:v>0.1726295663739731</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.03434998741646843</c:v>
+                  <c:v>0.1628080016271214</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.03302740681749468</c:v>
+                  <c:v>0.1535156956595558</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.03180898533750635</c:v>
+                  <c:v>0.1447515673263692</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.03068667091153459</c:v>
+                  <c:v>0.1365071917353464</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.02965317357811933</c:v>
+                  <c:v>0.1287686971141799</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.02870189130441408</c:v>
+                  <c:v>0.1215183012410617</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.02782684361932213</c:v>
+                  <c:v>0.1147355421568212</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.02702261221201686</c:v>
+                  <c:v>0.1083982531476762</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.02628428774596729</c:v>
+                  <c:v>0.1024833262064651</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.02560742222112478</c:v>
+                  <c:v>0.09696730218680041</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.02498798629032049</c:v>
+                  <c:v>0.09182682013625233</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.02442233100115748</c:v>
+                  <c:v>0.08703895307625466</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02390715349263701</c:v>
+                  <c:v>0.08258145288887789</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.02343946622722773</c:v>
+                  <c:v>0.07843292298965553</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.02301656938477244</c:v>
+                  <c:v>0.07457293407964713</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.02263602608516459</c:v>
+                  <c:v>0.07098209542362804</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.02229564014267586</c:v>
+                  <c:v>0.06764209173027817</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.02199343608668023</c:v>
+                  <c:v>0.06453569374927678</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.02172764121174414</c:v>
+                  <c:v>0.06164674908784806</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0214966694450333</c:v>
+                  <c:v>0.05896015843007686</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.02129910684107557</c:v>
+                  <c:v>0.05646184126754164</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0211336985334288</c:v>
+                  <c:v>0.05413869437756961</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.02099933699000735</c:v>
+                  <c:v>0.0519785455801097</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.02089505143396648</c:v>
+                  <c:v>0.04997010473591586</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.02081999830534525</c:v>
+                  <c:v>0.04810291349247492</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.02077345265031693</c:v>
+                  <c:v>0.04636729491920048</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.02075480033505992</c:v>
+                  <c:v>0.04475430388276482</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.02076353099009085</c:v>
+                  <c:v>0.04325567878300553</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.02079923159852712</c:v>
+                  <c:v>0.04186379508810972</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.02086158064828535</c:v>
+                  <c:v>0.04057162096532953</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.02095034277378063</c:v>
+                  <c:v>0.03937267519263928</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0210653638173618</c:v>
+                  <c:v>0.03826098745125266</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.02120656624458629</c:v>
+                  <c:v>0.03723106103369796</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.02137394485058185</c:v>
+                  <c:v>0.03627783795307783</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.02156756269723471</c:v>
+                  <c:v>0.03539666640288125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.02178754722285441</c:v>
+                  <c:v>0.03458327049057273</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.02203408646736102</c:v>
+                  <c:v>0.03383372214998139</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.02230742535699046</c:v>
+                  <c:v>0.03314441512550231</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.02260786199308538</c:v>
+                  <c:v>0.0325120409138975</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0229357438898078</c:v>
+                  <c:v>0.03193356654592068</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.02329146410565202</c:v>
+                  <c:v>0.03140621408919031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.02367545721353872</c:v>
+                  <c:v>0.03092744175498598</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02408819505412759</c:v>
+                  <c:v>0.03049492649437812</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02453018221690055</c:v>
+                  <c:v>0.03010654797287549</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02500195119365766</c:v>
+                  <c:v>0.02976037381723991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.02550405714946238</c:v>
+                  <c:v>0.02945464603300191</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02603707225691526</c:v>
+                  <c:v>0.02918776849630586</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0266015795410838</c:v>
+                  <c:v>0.02895829542885898</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.02719816618464298</c:v>
+                  <c:v>0.02876492076983758</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.02782741624597078</c:v>
+                  <c:v>0.02860646836352652</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02848990274729275</c:v>
+                  <c:v>0.02848188288617432</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02918617909568428</c:v>
+                  <c:v>0.02839022143999302</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02991676980702555</c:v>
+                  <c:v>0.02833064574639336</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.03068216051206908</c:v>
+                  <c:v>0.02830241487440945</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03148278723481692</c:v>
+                  <c:v>0.0283048784438287</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03231902494658911</c:v>
+                  <c:v>0.02833747024580862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,304 +1180,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09468156145833334</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1794234576258657</c:v>
+                  <c:v>0.002187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2552055445848606</c:v>
+                  <c:v>0.003596872473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3229199840442741</c:v>
+                  <c:v>0.005271905690106489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3833749276076119</c:v>
+                  <c:v>0.007261760103738553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4373000482309669</c:v>
+                  <c:v>0.009624483871782816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4853527699738647</c:v>
+                  <c:v>0.01242755055377319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5281245963382507</c:v>
+                  <c:v>0.01574885953811187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5661472286133737</c:v>
+                  <c:v>0.01967761012052124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5998983227924879</c:v>
+                  <c:v>0.02431492289875524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6298068195144947</c:v>
+                  <c:v>0.02977403808433452</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6562578286139626</c:v>
+                  <c:v>0.03617987250673391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6795970754994263</c:v>
+                  <c:v>0.04366767205268197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7001349301046245</c:v>
+                  <c:v>0.05238046543892232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7181500457792437</c:v>
+                  <c:v>0.06246502568492639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7338926381528609</c:v>
+                  <c:v>0.07406609976366083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7475874344150413</c:v>
+                  <c:v>0.08731879890674389</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7594363225964356</c:v>
+                  <c:v>0.102339270619993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7696207288945726</c:v>
+                  <c:v>0.1192140997177422</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7783037492107697</c:v>
+                  <c:v>0.1379892785646303</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7856320590572523</c:v>
+                  <c:v>0.158659972188901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7917376239777084</c:v>
+                  <c:v>0.1811625677226594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7967392306703347</c:v>
+                  <c:v>0.2053705110532213</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8007438571488696</c:v>
+                  <c:v>0.2310951032582357</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8038478985438848</c:v>
+                  <c:v>0.258091754664292</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8061382635417013</c:v>
+                  <c:v>0.286071300338369</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8076933549825642</c:v>
+                  <c:v>0.3147150963902575</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8085839467897529</c:v>
+                  <c:v>0.3436919932586512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.808873968171273</c:v>
+                  <c:v>0.3726750905344295</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.8086212049185245</c:v>
+                  <c:v>0.4013564376310041</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8078779266140853</c:v>
+                  <c:v>0.4294584291516166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8066914476455969</c:v>
+                  <c:v>0.456741349612504</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8051046290968625</c:v>
+                  <c:v>0.4830071577238506</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8031563278431658</c:v>
+                  <c:v>0.5081000472365222</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8008817985083359</c:v>
+                  <c:v>0.5319045479548687</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7983130533395173</c:v>
+                  <c:v>0.5543419700112229</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.7954791845156891</c:v>
+                  <c:v>0.5753659094887267</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.7924066529219084</c:v>
+                  <c:v>0.5949573870186067</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.7891195469876859</c:v>
+                  <c:v>0.6131200309709893</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7856398147998985</c:v>
+                  <c:v>0.6298755722701113</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7819874723537115</c:v>
+                  <c:v>0.6452598017363904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7781807904949946</c:v>
+                  <c:v>0.6593190555943562</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7742364628309281</c:v>
+                  <c:v>0.6721072370444455</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.7701697566384941</c:v>
+                  <c:v>0.6836833459725896</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7659946485802503</c:v>
+                  <c:v>0.6941094691502611</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7617239468403919</c:v>
+                  <c:v>0.7034491746214706</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7573694011190935</c:v>
+                  <c:v>0.7117662524412115</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7529418017672231</c:v>
+                  <c:v>0.7191237466494363</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.7484510692046712</c:v>
+                  <c:v>0.7255832283564766</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.7439063346419111</c:v>
+                  <c:v>0.7312042657843298</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7393160130143542</c:v>
+                  <c:v>0.7360440532505927</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7346878689410833</c:v>
+                  <c:v>0.740157166933769</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7300290764323483</c:v>
+                  <c:v>0.7435954205791989</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.7253462729925758</c:v>
+                  <c:v>0.7464077989940534</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.7206456086965359</c:v>
+                  <c:v>0.7486404512227929</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.7159327907547791</c:v>
+                  <c:v>0.7503367287241902</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.7112131240296573</c:v>
+                  <c:v>0.7515372567445738</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.7064915479144268</c:v>
+                  <c:v>0.7522800294660159</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7017726699444284</c:v>
+                  <c:v>0.7526005214703213</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.6970607964705549</c:v>
+                  <c:v>0.7525318096635828</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.6923599606906159</c:v>
+                  <c:v>0.7521047011093098</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.6876739483033276</c:v>
+                  <c:v>0.7513478632712446</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.6830063210220574</c:v>
+                  <c:v>0.7502879540134598</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.6783604381607854</c:v>
+                  <c:v>0.74894974938211</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.673739476482651</c:v>
+                  <c:v>0.7473562677312966</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.6691464484816497</c:v>
+                  <c:v>0.7455288891807378</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.6645842192502658</c:v>
+                  <c:v>0.7434874697266873</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.660055522069826</c:v>
+                  <c:v>0.7412504495874315</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.6555629728459373</c:v>
+                  <c:v>0.7388349555651488</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.651109083498328</c:v>
+                  <c:v>0.7362568973587448</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.6466962744025818</c:v>
+                  <c:v>0.7335310578770774</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.642326885970494</c:v>
+                  <c:v>0.7306711776865831</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.6380031894459265</c:v>
+                  <c:v>0.7276900337880178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.6337273969840074</c:v>
+                  <c:v>0.7245995129589485</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.6295016710731649</c:v>
+                  <c:v>0.721410679925892</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.6253281333517293</c:v>
+                  <c:v>0.718133840645897</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.6212088728635782</c:v>
+                  <c:v>0.7147786009845634</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.6171459537904641</c:v>
+                  <c:v>0.7113539210780875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.6131414226921746</c:v>
+                  <c:v>0.7078681656626143</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.609197315279467</c:v>
+                  <c:v>0.7043291506462763</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.605315662738741</c:v>
+                  <c:v>0.7007441861888708</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.6014984976216083</c:v>
+                  <c:v>0.6971201165419803</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5977478593068424</c:v>
+                  <c:v>0.6934633568891106</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5940657990366219</c:v>
+                  <c:v>0.6897799274116093</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5904543845234742</c:v>
+                  <c:v>0.6860754847920852</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5869157041188711</c:v>
+                  <c:v>0.6823553513530835</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5834518705290218</c:v>
+                  <c:v>0.6786245420150512</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5800650240580338</c:v>
+                  <c:v>0.6748877892443385</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.576757335353297</c:v>
+                  <c:v>0.6711495661491826</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.573531007622704</c:v>
+                  <c:v>0.6674141078694148</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5703882782881932</c:v>
+                  <c:v>0.6636854313940208</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5673314200351305</c:v>
+                  <c:v>0.6599673539297112</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5643627412123183</c:v>
+                  <c:v>0.6562635099333</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5614845855329945</c:v>
+                  <c:v>0.6525773669109507</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5586993310231863</c:v>
+                  <c:v>0.6489122400781938</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5560093881603192</c:v>
+                  <c:v>0.6452713059660293</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5534171971422002</c:v>
+                  <c:v>0.6416576150503683</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5509252242245458</c:v>
+                  <c:v>0.638074103474504</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5485359570643071</c:v>
+                  <c:v>0.6345236039271999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5462518990063252</c:v>
+                  <c:v>0.6310088557323107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,22 +2256,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2297,31 +2306,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2329,7 +2338,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2383,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2397,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.0004401721692777995</v>
+        <v>0.98703</v>
       </c>
       <c r="C6">
-        <v>0.9048782663723889</v>
+        <v>0.01197</v>
       </c>
       <c r="D6">
-        <v>0.09468156145833334</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2411,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.001573460274012026</v>
+        <v>0.98349557527</v>
       </c>
       <c r="C7">
-        <v>0.8190030821001223</v>
+        <v>0.01431742473</v>
       </c>
       <c r="D7">
-        <v>0.1794234576258657</v>
+        <v>0.002187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2425,13 +2434,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.003206348276877482</v>
+        <v>0.9792931081086351</v>
       </c>
       <c r="C8">
-        <v>0.741588107138262</v>
+        <v>0.01711001941836488</v>
       </c>
       <c r="D8">
-        <v>0.2552055445848606</v>
+        <v>0.003596872473</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2439,13 +2448,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.00522034873838453</v>
+        <v>0.9743023596045622</v>
       </c>
       <c r="C9">
-        <v>0.6718596672173414</v>
+        <v>0.02042573470533129</v>
       </c>
       <c r="D9">
-        <v>0.3229199840442741</v>
+        <v>0.005271905690106489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2453,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.007540778559900464</v>
+        <v>0.968384826205445</v>
       </c>
       <c r="C10">
-        <v>0.6090842938324876</v>
+        <v>0.02435341369081648</v>
       </c>
       <c r="D10">
-        <v>0.3833749276076119</v>
+        <v>0.007261760103738553</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2467,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.01011915201135062</v>
+        <v>0.9613824009211351</v>
       </c>
       <c r="C11">
-        <v>0.5525807997576825</v>
+        <v>0.02899311520708202</v>
       </c>
       <c r="D11">
-        <v>0.4373000482309669</v>
+        <v>0.009624483871782816</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2481,13 +2490,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.01292297834728121</v>
+        <v>0.9531166045474627</v>
       </c>
       <c r="C12">
-        <v>0.5017242516788541</v>
+        <v>0.03445584489876409</v>
       </c>
       <c r="D12">
-        <v>0.4853527699738647</v>
+        <v>0.01242755055377319</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2495,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.01592969863677457</v>
+        <v>0.9433887486839833</v>
       </c>
       <c r="C13">
-        <v>0.4559457050249747</v>
+        <v>0.04086239177790489</v>
       </c>
       <c r="D13">
-        <v>0.5281245963382507</v>
+        <v>0.01574885953811187</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2509,13 +2518,13 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.01912299858599356</v>
+        <v>0.9319815010850867</v>
       </c>
       <c r="C14">
-        <v>0.4147297728006327</v>
+        <v>0.04834088879439211</v>
       </c>
       <c r="D14">
-        <v>0.5661472286133737</v>
+        <v>0.01967761012052124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2523,13 +2532,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.02249052007791472</v>
+        <v>0.9186624329555765</v>
       </c>
       <c r="C15">
-        <v>0.3776111571295973</v>
+        <v>0.05702264414566834</v>
       </c>
       <c r="D15">
-        <v>0.5998983227924879</v>
+        <v>0.02431492289875524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2537,13 +2546,13 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.02602241603088363</v>
+        <v>0.9031902138832381</v>
       </c>
       <c r="C16">
-        <v>0.3441707644546216</v>
+        <v>0.06703574803242743</v>
       </c>
       <c r="D16">
-        <v>0.6298068195144947</v>
+        <v>0.02977403808433452</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2551,13 +2560,13 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.02971042527623818</v>
+        <v>0.8853241447831121</v>
       </c>
       <c r="C17">
-        <v>0.3140317461097991</v>
+        <v>0.07849598271015398</v>
       </c>
       <c r="D17">
-        <v>0.6562578286139626</v>
+        <v>0.03617987250673391</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2565,13 +2574,13 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.03354727488515779</v>
+        <v>0.8648376268796463</v>
       </c>
       <c r="C18">
-        <v>0.2868556496154159</v>
+        <v>0.0914947010676717</v>
       </c>
       <c r="D18">
-        <v>0.6795970754994263</v>
+        <v>0.04366767205268197</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2579,13 +2588,13 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.03752629267865179</v>
+        <v>0.8415358855571448</v>
       </c>
       <c r="C19">
-        <v>0.2623387772167237</v>
+        <v>0.1060836490039329</v>
       </c>
       <c r="D19">
-        <v>0.7001349301046245</v>
+        <v>0.05238046543892232</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2593,13 +2602,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.04164115697066739</v>
+        <v>0.8152777309592366</v>
       </c>
       <c r="C20">
-        <v>0.2402087972500888</v>
+        <v>0.122257243355837</v>
       </c>
       <c r="D20">
-        <v>0.7181500457792437</v>
+        <v>0.06246502568492639</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2607,13 +2616,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.04588573721636403</v>
+        <v>0.7860002988291425</v>
       </c>
       <c r="C21">
-        <v>0.220221624630775</v>
+        <v>0.1399336014071967</v>
       </c>
       <c r="D21">
-        <v>0.7338926381528609</v>
+        <v>0.07406609976366083</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2621,13 +2630,13 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.05025399555237527</v>
+        <v>0.7537446040700907</v>
       </c>
       <c r="C22">
-        <v>0.2021585700325833</v>
+        <v>0.1589365970231654</v>
       </c>
       <c r="D22">
-        <v>0.7475874344150413</v>
+        <v>0.08731879890674389</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2635,13 +2644,13 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.05473992941122647</v>
+        <v>0.7186785113405161</v>
       </c>
       <c r="C23">
-        <v>0.1858237479923379</v>
+        <v>0.1789822180394909</v>
       </c>
       <c r="D23">
-        <v>0.7594363225964356</v>
+        <v>0.102339270619993</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2649,13 +2658,13 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.05933754188773339</v>
+        <v>0.6811127018416026</v>
       </c>
       <c r="C24">
-        <v>0.171041729217694</v>
+        <v>0.1996731984406553</v>
       </c>
       <c r="D24">
-        <v>0.7696207288945726</v>
+        <v>0.1192140997177422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2663,13 +2672,13 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.06404083075446239</v>
+        <v>0.6415048573361992</v>
       </c>
       <c r="C25">
-        <v>0.1576554200347679</v>
+        <v>0.2205058640991705</v>
       </c>
       <c r="D25">
-        <v>0.7783037492107697</v>
+        <v>0.1379892785646303</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2677,13 +2686,13 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.06884378981754137</v>
+        <v>0.6004480752546254</v>
       </c>
       <c r="C26">
-        <v>0.1455241511252063</v>
+        <v>0.2408919525564736</v>
       </c>
       <c r="D26">
-        <v>0.7856320590572523</v>
+        <v>0.158659972188901</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2691,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.07374041819067984</v>
+        <v>0.5586417421994555</v>
       </c>
       <c r="C27">
-        <v>0.1345219578316118</v>
+        <v>0.2601956900778851</v>
       </c>
       <c r="D27">
-        <v>0.7917376239777084</v>
+        <v>0.1811625677226594</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2705,13 +2714,13 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.07872473436344762</v>
+        <v>0.5168465157913122</v>
       </c>
       <c r="C28">
-        <v>0.1245360349662178</v>
+        <v>0.2777829731554664</v>
       </c>
       <c r="D28">
-        <v>0.7967392306703347</v>
+        <v>0.2053705110532213</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2719,13 +2728,13 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.08379079284960757</v>
+        <v>0.4758288723553781</v>
       </c>
       <c r="C29">
-        <v>0.1154653500015229</v>
+        <v>0.2930760243863861</v>
       </c>
       <c r="D29">
-        <v>0.8007438571488696</v>
+        <v>0.2310951032582357</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2733,13 +2742,13 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.08893270184965722</v>
+        <v>0.4363036131285091</v>
       </c>
       <c r="C30">
-        <v>0.1072193996064581</v>
+        <v>0.3056046322071989</v>
       </c>
       <c r="D30">
-        <v>0.8038478985438848</v>
+        <v>0.258091754664292</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2747,13 +2756,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.09414464083069056</v>
+        <v>0.398883609108909</v>
       </c>
       <c r="C31">
-        <v>0.09971709562760835</v>
+        <v>0.315045090552722</v>
       </c>
       <c r="D31">
-        <v>0.8061382635417013</v>
+        <v>0.286071300338369</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2761,13 +2770,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.09942087726998934</v>
+        <v>0.3640444252867788</v>
       </c>
       <c r="C32">
-        <v>0.09288576774744657</v>
+        <v>0.3212404783229637</v>
       </c>
       <c r="D32">
-        <v>0.8076933549825642</v>
+        <v>0.3147150963902575</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2775,13 +2784,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.1047557820622467</v>
+        <v>0.3321078346577014</v>
       </c>
       <c r="C33">
-        <v>0.08666027114800058</v>
+        <v>0.3242001720836473</v>
       </c>
       <c r="D33">
-        <v>0.8085839467897529</v>
+        <v>0.3436919932586512</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2789,13 +2798,13 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.1101438432783841</v>
+        <v>0.3032439294463817</v>
       </c>
       <c r="C34">
-        <v>0.08098218855034302</v>
+        <v>0.3240809800191888</v>
       </c>
       <c r="D34">
-        <v>0.808873968171273</v>
+        <v>0.3726750905344295</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2803,13 +2812,13 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.1155796781034558</v>
+        <v>0.27748800339977</v>
       </c>
       <c r="C35">
-        <v>0.07579911697801983</v>
+        <v>0.3211555589692259</v>
       </c>
       <c r="D35">
-        <v>0.8086212049185245</v>
+        <v>0.4013564376310041</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2817,13 +2826,13 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.1210580428841314</v>
+        <v>0.2547665233243478</v>
       </c>
       <c r="C36">
-        <v>0.07106403050178338</v>
+        <v>0.3157750475240356</v>
       </c>
       <c r="D36">
-        <v>0.8078779266140853</v>
+        <v>0.4294584291516166</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2831,13 +2840,13 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.1265738412914061</v>
+        <v>0.2349264343127802</v>
       </c>
       <c r="C37">
-        <v>0.06673471106299712</v>
+        <v>0.3083322160747158</v>
       </c>
       <c r="D37">
-        <v>0.8066914476455969</v>
+        <v>0.456741349612504</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2845,13 +2854,13 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.1321221306579508</v>
+        <v>0.217763231377048</v>
       </c>
       <c r="C38">
-        <v>0.06277324024518685</v>
+        <v>0.2992296108991014</v>
       </c>
       <c r="D38">
-        <v>0.8051046290968625</v>
+        <v>0.4830071577238506</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2859,13 +2868,13 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.1376981265867629</v>
+        <v>0.203044940856361</v>
       </c>
       <c r="C39">
-        <v>0.05914554557007143</v>
+        <v>0.2888550119071168</v>
       </c>
       <c r="D39">
-        <v>0.8031563278431658</v>
+        <v>0.5081000472365222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2873,13 +2882,13 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.1432972059522648</v>
+        <v>0.190530776686103</v>
       </c>
       <c r="C40">
-        <v>0.05582099553939948</v>
+        <v>0.2775646753590283</v>
       </c>
       <c r="D40">
-        <v>0.8008817985083359</v>
+        <v>0.5319045479548687</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2887,13 +2896,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.1489149084296577</v>
+        <v>0.1799844382126172</v>
       </c>
       <c r="C41">
-        <v>0.05277203823082512</v>
+        <v>0.26567359177616</v>
       </c>
       <c r="D41">
-        <v>0.7983130533395173</v>
+        <v>0.5543419700112229</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2901,13 +2910,13 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.1545469366954955</v>
+        <v>0.1711827242636013</v>
       </c>
       <c r="C42">
-        <v>0.04997387878881554</v>
+        <v>0.2534513662476721</v>
       </c>
       <c r="D42">
-        <v>0.7954791845156891</v>
+        <v>0.5753659094887267</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2915,13 +2924,13 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.1601891554439349</v>
+        <v>0.1639204347557061</v>
       </c>
       <c r="C43">
-        <v>0.04740419163415673</v>
+        <v>0.2411221782256874</v>
       </c>
       <c r="D43">
-        <v>0.7924066529219084</v>
+        <v>0.5949573870186067</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2929,13 +2938,13 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.1658375893604205</v>
+        <v>0.1580125529406929</v>
       </c>
       <c r="C44">
-        <v>0.0450428636518937</v>
+        <v>0.2288674160883179</v>
       </c>
       <c r="D44">
-        <v>0.7891195469876859</v>
+        <v>0.6131200309709893</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2943,13 +2952,13 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.1714884201888454</v>
+        <v>0.1532945758400863</v>
       </c>
       <c r="C45">
-        <v>0.04287176501125617</v>
+        <v>0.2168298518898026</v>
       </c>
       <c r="D45">
-        <v>0.7856398147998985</v>
+        <v>0.6298755722701113</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2957,13 +2966,13 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.177137983020433</v>
+        <v>0.1496216795103126</v>
       </c>
       <c r="C46">
-        <v>0.04087454462585557</v>
+        <v>0.2051185187532971</v>
       </c>
       <c r="D46">
-        <v>0.7819874723537115</v>
+        <v>0.6452598017363904</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2971,13 +2980,13 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.1827827619234318</v>
+        <v>0.1468672243453158</v>
       </c>
       <c r="C47">
-        <v>0.03903644758157365</v>
+        <v>0.1938137200603282</v>
       </c>
       <c r="D47">
-        <v>0.7781807904949946</v>
+        <v>0.6593190555943562</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2985,13 +2994,13 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.1884193850228004</v>
+        <v>0.1449209499696692</v>
       </c>
       <c r="C48">
-        <v>0.03734415214627153</v>
+        <v>0.1829718129858855</v>
       </c>
       <c r="D48">
-        <v>0.7742364628309281</v>
+        <v>0.6721072370444455</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2999,13 +3008,13 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.194044619128813</v>
+        <v>0.1436870876534375</v>
       </c>
       <c r="C49">
-        <v>0.03578562423269292</v>
+        <v>0.1726295663739731</v>
       </c>
       <c r="D49">
-        <v>0.7701697566384941</v>
+        <v>0.6836833459725896</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3013,13 +3022,13 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.1996553640032812</v>
+        <v>0.1430825292226178</v>
       </c>
       <c r="C50">
-        <v>0.03434998741646843</v>
+        <v>0.1628080016271214</v>
       </c>
       <c r="D50">
-        <v>0.7659946485802503</v>
+        <v>0.6941094691502611</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3027,13 +3036,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.2052486463421134</v>
+        <v>0.1430351297189738</v>
       </c>
       <c r="C51">
-        <v>0.03302740681749468</v>
+        <v>0.1535156956595558</v>
       </c>
       <c r="D51">
-        <v>0.7617239468403919</v>
+        <v>0.7034491746214706</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3041,13 +3050,13 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.2108216135434002</v>
+        <v>0.1434821802324196</v>
       </c>
       <c r="C52">
-        <v>0.03180898533750635</v>
+        <v>0.1447515673263692</v>
       </c>
       <c r="D52">
-        <v>0.7573694011190935</v>
+        <v>0.7117662524412115</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3055,13 +3064,13 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.2163715273212422</v>
+        <v>0.1443690616152175</v>
       </c>
       <c r="C53">
-        <v>0.03068667091153459</v>
+        <v>0.1365071917353464</v>
       </c>
       <c r="D53">
-        <v>0.7529418017672231</v>
+        <v>0.7191237466494363</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3069,13 +3078,13 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.2218957572172095</v>
+        <v>0.1456480745293438</v>
       </c>
       <c r="C54">
-        <v>0.02965317357811933</v>
+        <v>0.1287686971141799</v>
       </c>
       <c r="D54">
-        <v>0.7484510692046712</v>
+        <v>0.7255832283564766</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3083,13 +3092,13 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.2273917740536747</v>
+        <v>0.1472774329746087</v>
       </c>
       <c r="C55">
-        <v>0.02870189130441408</v>
+        <v>0.1215183012410617</v>
       </c>
       <c r="D55">
-        <v>0.7439063346419111</v>
+        <v>0.7312042657843298</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3097,13 +3106,13 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.2328571433663236</v>
+        <v>0.1492204045925864</v>
       </c>
       <c r="C56">
-        <v>0.02782684361932213</v>
+        <v>0.1147355421568212</v>
       </c>
       <c r="D56">
-        <v>0.7393160130143542</v>
+        <v>0.7360440532505927</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3111,13 +3120,13 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.2382895188468998</v>
+        <v>0.1514445799185551</v>
       </c>
       <c r="C57">
-        <v>0.02702261221201686</v>
+        <v>0.1083982531476762</v>
       </c>
       <c r="D57">
-        <v>0.7346878689410833</v>
+        <v>0.740157166933769</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3125,13 +3134,13 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.2436866358216844</v>
+        <v>0.1539212532143363</v>
       </c>
       <c r="C58">
-        <v>0.02628428774596729</v>
+        <v>0.1024833262064651</v>
       </c>
       <c r="D58">
-        <v>0.7300290764323483</v>
+        <v>0.7435954205791989</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3139,13 +3148,13 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.2490463047862993</v>
+        <v>0.1566248988191465</v>
       </c>
       <c r="C59">
-        <v>0.02560742222112478</v>
+        <v>0.09696730218680041</v>
       </c>
       <c r="D59">
-        <v>0.7253462729925758</v>
+        <v>0.7464077989940534</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3153,13 +3162,13 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.2543664050131434</v>
+        <v>0.1595327286409551</v>
       </c>
       <c r="C60">
-        <v>0.02498798629032049</v>
+        <v>0.09182682013625233</v>
       </c>
       <c r="D60">
-        <v>0.7206456086965359</v>
+        <v>0.7486404512227929</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3167,13 +3176,13 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.2596448782440633</v>
+        <v>0.1626243181995554</v>
       </c>
       <c r="C61">
-        <v>0.02442233100115748</v>
+        <v>0.08703895307625466</v>
       </c>
       <c r="D61">
-        <v>0.7159327907547791</v>
+        <v>0.7503367287241902</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3181,13 +3190,13 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.2648797224777056</v>
+        <v>0.1658812903665486</v>
       </c>
       <c r="C62">
-        <v>0.02390715349263701</v>
+        <v>0.08258145288887789</v>
       </c>
       <c r="D62">
-        <v>0.7112131240296573</v>
+        <v>0.7515372567445738</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3195,13 +3204,13 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.2700689858583454</v>
+        <v>0.1692870475443289</v>
       </c>
       <c r="C63">
-        <v>0.02343946622722773</v>
+        <v>0.07843292298965553</v>
       </c>
       <c r="D63">
-        <v>0.7064915479144268</v>
+        <v>0.7522800294660159</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3209,13 +3218,13 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.2752107606707991</v>
+        <v>0.172826544450032</v>
       </c>
       <c r="C64">
-        <v>0.02301656938477244</v>
+        <v>0.07457293407964713</v>
       </c>
       <c r="D64">
-        <v>0.7017726699444284</v>
+        <v>0.7526005214703213</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3223,13 +3232,13 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.2803031774442805</v>
+        <v>0.1764860949127895</v>
       </c>
       <c r="C65">
-        <v>0.02263602608516459</v>
+        <v>0.07098209542362804</v>
       </c>
       <c r="D65">
-        <v>0.6970607964705549</v>
+        <v>0.7525318096635828</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3237,13 +3246,13 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.2853443991667082</v>
+        <v>0.1802532071604124</v>
       </c>
       <c r="C66">
-        <v>0.02229564014267586</v>
+        <v>0.06764209173027817</v>
       </c>
       <c r="D66">
-        <v>0.6923599606906159</v>
+        <v>0.7521047011093098</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3251,13 +3260,13 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.2903326156099921</v>
+        <v>0.1841164429794791</v>
       </c>
       <c r="C67">
-        <v>0.02199343608668023</v>
+        <v>0.06453569374927678</v>
       </c>
       <c r="D67">
-        <v>0.6876739483033276</v>
+        <v>0.7513478632712446</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3265,13 +3274,13 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.2952660377661985</v>
+        <v>0.1880652968986926</v>
       </c>
       <c r="C68">
-        <v>0.02172764121174414</v>
+        <v>0.06164674908784806</v>
       </c>
       <c r="D68">
-        <v>0.6830063210220574</v>
+        <v>0.7502879540134598</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3279,13 +3288,13 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.3001428923941813</v>
+        <v>0.1920900921878136</v>
       </c>
       <c r="C69">
-        <v>0.0214966694450333</v>
+        <v>0.05896015843007686</v>
       </c>
       <c r="D69">
-        <v>0.6783604381607854</v>
+        <v>0.74894974938211</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3293,13 +3302,13 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.3049614166762734</v>
+        <v>0.1961818910011622</v>
       </c>
       <c r="C70">
-        <v>0.02129910684107557</v>
+        <v>0.05646184126754164</v>
       </c>
       <c r="D70">
-        <v>0.673739476482651</v>
+        <v>0.7473562677312966</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3307,13 +3316,13 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.3097198529849214</v>
+        <v>0.2003324164416931</v>
       </c>
       <c r="C71">
-        <v>0.0211336985334288</v>
+        <v>0.05413869437756961</v>
       </c>
       <c r="D71">
-        <v>0.6691464484816497</v>
+        <v>0.7455288891807378</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3321,13 +3330,13 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.3144164437597269</v>
+        <v>0.2045339846932034</v>
       </c>
       <c r="C72">
-        <v>0.02099933699000735</v>
+        <v>0.0519785455801097</v>
       </c>
       <c r="D72">
-        <v>0.6645842192502658</v>
+        <v>0.7434874697266873</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3335,13 +3344,13 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.3190494264962076</v>
+        <v>0.2087794456766531</v>
       </c>
       <c r="C73">
-        <v>0.02089505143396648</v>
+        <v>0.04997010473591586</v>
       </c>
       <c r="D73">
-        <v>0.660055522069826</v>
+        <v>0.7412504495874315</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3349,13 +3358,13 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.3236170288487174</v>
+        <v>0.2130621309423768</v>
       </c>
       <c r="C74">
-        <v>0.02081999830534525</v>
+        <v>0.04810291349247492</v>
       </c>
       <c r="D74">
-        <v>0.6555629728459373</v>
+        <v>0.7388349555651488</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3363,13 +3372,13 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.3281174638513552</v>
+        <v>0.2173758077220552</v>
       </c>
       <c r="C75">
-        <v>0.02077345265031693</v>
+        <v>0.04636729491920048</v>
       </c>
       <c r="D75">
-        <v>0.651109083498328</v>
+        <v>0.7362568973587448</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3377,13 +3386,13 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.3325489252623583</v>
+        <v>0.2217146382401583</v>
       </c>
       <c r="C76">
-        <v>0.02075480033505992</v>
+        <v>0.04475430388276482</v>
       </c>
       <c r="D76">
-        <v>0.6466962744025818</v>
+        <v>0.7335310578770774</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3391,13 +3400,13 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.3369095830394152</v>
+        <v>0.2260731435304119</v>
       </c>
       <c r="C77">
-        <v>0.02076353099009085</v>
+        <v>0.04325567878300553</v>
       </c>
       <c r="D77">
-        <v>0.642326885970494</v>
+        <v>0.7306711776865831</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3405,13 +3414,13 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.3411975789555465</v>
+        <v>0.230446171123873</v>
       </c>
       <c r="C78">
-        <v>0.02079923159852712</v>
+        <v>0.04186379508810972</v>
       </c>
       <c r="D78">
-        <v>0.6380031894459265</v>
+        <v>0.7276900337880178</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3419,13 +3428,13 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.3454110223677074</v>
+        <v>0.2348288660757224</v>
       </c>
       <c r="C79">
-        <v>0.02086158064828535</v>
+        <v>0.04057162096532953</v>
       </c>
       <c r="D79">
-        <v>0.6337273969840074</v>
+        <v>0.7245995129589485</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3433,13 +3442,13 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.3495479861530546</v>
+        <v>0.2392166448814692</v>
       </c>
       <c r="C80">
-        <v>0.02095034277378063</v>
+        <v>0.03937267519263928</v>
       </c>
       <c r="D80">
-        <v>0.6295016710731649</v>
+        <v>0.721410679925892</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3447,13 +3456,13 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.3536065028309091</v>
+        <v>0.2436051719028508</v>
       </c>
       <c r="C81">
-        <v>0.0210653638173618</v>
+        <v>0.03826098745125266</v>
       </c>
       <c r="D81">
-        <v>0.6253281333517293</v>
+        <v>0.718133840645897</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3461,13 +3470,13 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.3575845608918357</v>
+        <v>0.2479903379817392</v>
       </c>
       <c r="C82">
-        <v>0.02120656624458629</v>
+        <v>0.03723106103369796</v>
       </c>
       <c r="D82">
-        <v>0.6212088728635782</v>
+        <v>0.7147786009845634</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3475,13 +3484,13 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.3614801013589542</v>
+        <v>0.2523682409688351</v>
       </c>
       <c r="C83">
-        <v>0.02137394485058185</v>
+        <v>0.03627783795307783</v>
       </c>
       <c r="D83">
-        <v>0.6171459537904641</v>
+        <v>0.7113539210780875</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3489,13 +3498,13 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.3652910146105908</v>
+        <v>0.2567351679345048</v>
       </c>
       <c r="C84">
-        <v>0.02156756269723471</v>
+        <v>0.03539666640288125</v>
       </c>
       <c r="D84">
-        <v>0.6131414226921746</v>
+        <v>0.7078681656626143</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3503,13 +3512,13 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.3690151374976788</v>
+        <v>0.2610875788631513</v>
       </c>
       <c r="C85">
-        <v>0.02178754722285441</v>
+        <v>0.03458327049057273</v>
       </c>
       <c r="D85">
-        <v>0.609197315279467</v>
+        <v>0.7043291506462763</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3517,13 +3526,13 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.3726502507938981</v>
+        <v>0.2654220916611482</v>
       </c>
       <c r="C86">
-        <v>0.02203408646736102</v>
+        <v>0.03383372214998139</v>
       </c>
       <c r="D86">
-        <v>0.605315662738741</v>
+        <v>0.7007441861888708</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3531,13 +3540,13 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.3761940770214015</v>
+        <v>0.2697354683325178</v>
       </c>
       <c r="C87">
-        <v>0.02230742535699046</v>
+        <v>0.03314441512550231</v>
       </c>
       <c r="D87">
-        <v>0.6014984976216083</v>
+        <v>0.6971201165419803</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3545,13 +3554,13 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.3796442787000725</v>
+        <v>0.2740246021969922</v>
       </c>
       <c r="C88">
-        <v>0.02260786199308538</v>
+        <v>0.0325120409138975</v>
       </c>
       <c r="D88">
-        <v>0.5977478593068424</v>
+        <v>0.6934633568891106</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3559,13 +3568,13 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.3829984570735705</v>
+        <v>0.2782865060424704</v>
       </c>
       <c r="C89">
-        <v>0.0229357438898078</v>
+        <v>0.03193356654592068</v>
       </c>
       <c r="D89">
-        <v>0.5940657990366219</v>
+        <v>0.6897799274116093</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3573,13 +3582,13 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.386254151370874</v>
+        <v>0.2825183011187248</v>
       </c>
       <c r="C90">
-        <v>0.02329146410565202</v>
+        <v>0.03140621408919031</v>
       </c>
       <c r="D90">
-        <v>0.5904543845234742</v>
+        <v>0.6860754847920852</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3587,13 +3596,13 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.3894088386675904</v>
+        <v>0.2867172068919309</v>
       </c>
       <c r="C91">
-        <v>0.02367545721353872</v>
+        <v>0.03092744175498598</v>
       </c>
       <c r="D91">
-        <v>0.5869157041188711</v>
+        <v>0.6823553513530835</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3601,13 +3610,13 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.3924599344168508</v>
+        <v>0.290880531490571</v>
       </c>
       <c r="C92">
-        <v>0.02408819505412759</v>
+        <v>0.03049492649437812</v>
       </c>
       <c r="D92">
-        <v>0.5834518705290218</v>
+        <v>0.6786245420150512</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3615,13 +3624,13 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.3954047937250658</v>
+        <v>0.2950056627827863</v>
       </c>
       <c r="C93">
-        <v>0.02453018221690055</v>
+        <v>0.03010654797287549</v>
       </c>
       <c r="D93">
-        <v>0.5800650240580338</v>
+        <v>0.6748877892443385</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3629,13 +3638,13 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.3982407134530455</v>
+        <v>0.2990900600335777</v>
       </c>
       <c r="C94">
-        <v>0.02500195119365766</v>
+        <v>0.02976037381723991</v>
       </c>
       <c r="D94">
-        <v>0.576757335353297</v>
+        <v>0.6711495661491826</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3643,13 +3652,13 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.4009649352278337</v>
+        <v>0.3031312460975836</v>
       </c>
       <c r="C95">
-        <v>0.02550405714946238</v>
+        <v>0.02945464603300191</v>
       </c>
       <c r="D95">
-        <v>0.573531007622704</v>
+        <v>0.6674141078694148</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3657,13 +3666,13 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.4035746494548916</v>
+        <v>0.3071268001096736</v>
       </c>
       <c r="C96">
-        <v>0.02603707225691526</v>
+        <v>0.02918776849630586</v>
       </c>
       <c r="D96">
-        <v>0.5703882782881932</v>
+        <v>0.6636854313940208</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3671,13 +3680,13 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.4060670004237858</v>
+        <v>0.3110743506414301</v>
       </c>
       <c r="C97">
-        <v>0.0266015795410838</v>
+        <v>0.02895829542885898</v>
       </c>
       <c r="D97">
-        <v>0.5673314200351305</v>
+        <v>0.6599673539297112</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3685,13 +3694,13 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.4084390926030388</v>
+        <v>0.3149715692968627</v>
       </c>
       <c r="C98">
-        <v>0.02719816618464298</v>
+        <v>0.02876492076983758</v>
       </c>
       <c r="D98">
-        <v>0.5643627412123183</v>
+        <v>0.6562635099333</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3699,13 +3708,13 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.4106879982210348</v>
+        <v>0.318816164725523</v>
       </c>
       <c r="C99">
-        <v>0.02782741624597078</v>
+        <v>0.02860646836352652</v>
       </c>
       <c r="D99">
-        <v>0.5614845855329945</v>
+        <v>0.6525773669109507</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3713,13 +3722,13 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.4128107662295212</v>
+        <v>0.322605877035632</v>
       </c>
       <c r="C100">
-        <v>0.02848990274729275</v>
+        <v>0.02848188288617432</v>
       </c>
       <c r="D100">
-        <v>0.5586993310231863</v>
+        <v>0.6489122400781938</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.4148044327439967</v>
+        <v>0.3263384725939779</v>
       </c>
       <c r="C101">
-        <v>0.02918617909568428</v>
+        <v>0.02839022143999302</v>
       </c>
       <c r="D101">
-        <v>0.5560093881603192</v>
+        <v>0.6452713059660293</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3741,13 +3750,13 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.4166660330507745</v>
+        <v>0.3300117392032385</v>
       </c>
       <c r="C102">
-        <v>0.02991676980702555</v>
+        <v>0.02833064574639336</v>
       </c>
       <c r="D102">
-        <v>0.5534171971422002</v>
+        <v>0.6416576150503683</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3755,13 +3764,13 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.4183926152633853</v>
+        <v>0.3336234816510867</v>
       </c>
       <c r="C103">
-        <v>0.03068216051206908</v>
+        <v>0.02830241487440945</v>
       </c>
       <c r="D103">
-        <v>0.5509252242245458</v>
+        <v>0.638074103474504</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3769,13 +3778,13 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.4199812557008761</v>
+        <v>0.3371715176289716</v>
       </c>
       <c r="C104">
-        <v>0.03148278723481692</v>
+        <v>0.0283048784438287</v>
       </c>
       <c r="D104">
-        <v>0.5485359570643071</v>
+        <v>0.6345236039271999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3783,13 +3792,13 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.4214290760470858</v>
+        <v>0.3406536740218808</v>
       </c>
       <c r="C105">
-        <v>0.03231902494658911</v>
+        <v>0.02833747024580862</v>
       </c>
       <c r="D105">
-        <v>0.5462518990063252</v>
+        <v>0.6310088557323107</v>
       </c>
     </row>
   </sheetData>

--- a/arch/SIRS.xlsx
+++ b/arch/SIRS.xlsx
@@ -43,13 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.99</t>
+    <t>0.93</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.05</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.02</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -67,10 +67,10 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>0.35</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.15</t>
   </si>
   <si>
     <t>Метод решения:</t>
@@ -198,11 +198,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$C$4</c:f>
+              <c:f>'Решение'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -524,312 +524,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$C$5:$C$105</c:f>
+              <c:f>'Решение'!$B$5:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01217163075259903</c:v>
+                  <c:v>0.9128668649984811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01479885843067786</c:v>
+                  <c:v>0.8930703897994909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01796969903687595</c:v>
+                  <c:v>0.87043146926989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02178561984265326</c:v>
+                  <c:v>0.8448489958030584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02636190856628304</c:v>
+                  <c:v>0.8163289429228899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03182713671819873</c:v>
+                  <c:v>0.7850099744332303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03832124121464905</c:v>
+                  <c:v>0.7511800804548867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04599163810131969</c:v>
+                  <c:v>0.7152788249483393</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05498670912074416</c:v>
+                  <c:v>0.6778815265024765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06544601942666423</c:v>
+                  <c:v>0.6396650458050106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07748680757914203</c:v>
+                  <c:v>0.6013590278423713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.09118672238441236</c:v>
+                  <c:v>0.563690075342558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1065635325859023</c:v>
+                  <c:v>0.5273280535005089</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1235536027932231</c:v>
+                  <c:v>0.4928428918845068</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1419921740540695</c:v>
+                  <c:v>0.4606772570874394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1615995840723245</c:v>
+                  <c:v>0.4311365277595788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1819780145649603</c:v>
+                  <c:v>0.4043939814407738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2026226390707485</c:v>
+                  <c:v>0.3805069157603189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2229488831718864</c:v>
+                  <c:v>0.3594387901972699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2423341505044889</c:v>
+                  <c:v>0.3410830460545369</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2601686975065187</c:v>
+                  <c:v>0.3252854673270134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2759076284443878</c:v>
+                  <c:v>0.311863263446313</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2891153205386184</c:v>
+                  <c:v>0.3006201594878544</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2994953116370699</c:v>
+                  <c:v>0.2913575429590529</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3069021652834826</c:v>
+                  <c:v>0.2838821491391317</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3113358067574094</c:v>
+                  <c:v>0.2780109453915193</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3129220248350406</c:v>
+                  <c:v>0.2735738887037186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3118845082262288</c:v>
+                  <c:v>0.2704151557737524</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3085138765547021</c:v>
+                  <c:v>0.2683933344377408</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3031381250061424</c:v>
+                  <c:v>0.2673809511558582</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2960973562542135</c:v>
+                  <c:v>0.2672636078989039</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2877241519645812</c:v>
+                  <c:v>0.2679389192100212</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.278329747801512</c:v>
+                  <c:v>0.2693153768552402</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2681954172066475</c:v>
+                  <c:v>0.2713112230117386</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2575680973430768</c:v>
+                  <c:v>0.2738533801394248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2466592009854848</c:v>
+                  <c:v>0.2768764633224668</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.2356456399632111</c:v>
+                  <c:v>0.2803218861694412</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2246722497041296</c:v>
+                  <c:v>0.2841370620977272</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2138549902567107</c:v>
+                  <c:v>0.2882746973085589</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2032844724851962</c:v>
+                  <c:v>0.2926921687464002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.193029503258745</c:v>
+                  <c:v>0.2973509789509547</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1831404563921341</c:v>
+                  <c:v>0.3022162793431848</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1736523591050348</c:v>
+                  <c:v>0.3072564537261151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1645876417850347</c:v>
+                  <c:v>0.312442754354637</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.155958537391561</c:v>
+                  <c:v>0.3177489836608991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1477691409894898</c:v>
+                  <c:v>0.323151215504198</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1400171538450977</c:v>
+                  <c:v>0.3286275505818607</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1326953435051798</c:v>
+                  <c:v>0.3341579013546493</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1257927537200679</c:v>
+                  <c:v>0.3397238024894407</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1192956976802646</c:v>
+                  <c:v>0.3453082433974966</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1131885660002453</c:v>
+                  <c:v>0.3508955199495103</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1074544779950184</c:v>
+                  <c:v>0.3564711028834897</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1020758015680513</c:v>
+                  <c:v>0.3620215207949522</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.09703456378091553</c:v>
+                  <c:v>0.3675342559180422</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.09231277109100494</c:v>
+                  <c:v>0.3729976511781147</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.08789265542212403</c:v>
+                  <c:v>0.3784008272277116</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.08375685971584472</c:v>
+                  <c:v>0.3837336083746503</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.07988857440686481</c:v>
+                  <c:v>0.3889864564784127</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.07627163436047647</c:v>
+                  <c:v>0.3941504120336713</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.07289058418104083</c:v>
+                  <c:v>0.3992170417814742</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0697307184184989</c:v>
+                  <c:v>0.4041783922925374</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.06677810203561377</c:v>
+                  <c:v>0.4090269490559253</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.06401957552293545</c:v>
+                  <c:v>0.4137556006823092</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06144274823462207</c:v>
+                  <c:v>0.4183576078957332</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.05903598284211228</c:v>
+                  <c:v>0.4228265770427656</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.05678837324293468</c:v>
+                  <c:v>0.4271564378941484</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.05468971780014329</c:v>
+                  <c:v>0.4313414255523716</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.05273048940805612</c:v>
+                  <c:v>0.4353760663095831</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.05090180356855769</c:v>
+                  <c:v>0.439255167324269</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.04919538540769171</c:v>
+                  <c:v>0.442973810002451</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.04760353635490716</c:v>
+                  <c:v>0.4465273469798439</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04611910103897846</c:v>
+                  <c:v>0.4499114026055295</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04473543481847934</c:v>
+                  <c:v>0.4531218768251887</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04344637225505928</c:v>
+                  <c:v>0.4561549523527409</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.042246196749917</c:v>
+                  <c:v>0.4590071050033313</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04112961149385601</c:v>
+                  <c:v>0.4616751170379832</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04009171182588249</c:v>
+                  <c:v>0.4641560933410273</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.03912795905177219</c:v>
+                  <c:v>0.4664474802158515</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.03823415574016238</c:v>
+                  <c:v>0.4685470865430406</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.03740642248768303</c:v>
+                  <c:v>0.4704531069982185</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.03664117612491701</c:v>
+                  <c:v>0.4721641469757866</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03593510932033099</c:v>
+                  <c:v>0.4736792488104606</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.03528517152872905</c:v>
+                  <c:v>0.4749979188325374</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03468855122341685</c:v>
+                  <c:v>0.4761201547369917</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03414265934644477</c:v>
+                  <c:v>0.4770464726929198</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0336451139084699</c:v>
+                  <c:v>0.4777779335708899</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.03319372566848863</c:v>
+                  <c:v>0.47831616762402</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0327864848235797</c:v>
+                  <c:v>0.4786633969268045</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03242154863956774</c:v>
+                  <c:v>0.4788224548565937</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03209722995493366</c:v>
+                  <c:v>0.4787968018988271</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03181198649217241</c:v>
+                  <c:v>0.4785905370710149</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.031564410912982</c:v>
+                  <c:v>0.4782084042940132</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.031353221556042</c:v>
+                  <c:v>0.4776557930937178</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03117725379861626</c:v>
+                  <c:v>0.476938733092554</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.03103545198572184</c:v>
+                  <c:v>0.4760638818478301</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.03092686187309549</c:v>
+                  <c:v>0.4750385057119363</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03085062353262194</c:v>
+                  <c:v>0.4738704535252836</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.03080596467124119</c:v>
+                  <c:v>0.4725681231035245</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03079219431661088</c:v>
+                  <c:v>0.4711404206417872</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03080869682495823</c:v>
+                  <c:v>0.4695967133253557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,11 +840,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$D$4</c:f>
+              <c:f>'Решение'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1166,312 +1166,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$D$5:$D$105</c:f>
+              <c:f>'Решение'!$C$5:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001099780381147775</c:v>
+                  <c:v>0.05941806613638473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.002426724903145534</c:v>
+                  <c:v>0.07015571329314703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.004028183592625587</c:v>
+                  <c:v>0.08222130093561271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005960457683337319</c:v>
+                  <c:v>0.09555237472973682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008290073257210245</c:v>
+                  <c:v>0.1099982938785772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01109503727514239</c:v>
+                  <c:v>0.1253083260656669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0144659632890628</c:v>
+                  <c:v>0.1411295346012589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01850690225201769</c:v>
+                  <c:v>0.1570181132553657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02333565301014928</c:v>
+                  <c:v>0.1724657183946339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02908326354019007</c:v>
+                  <c:v>0.186939044212231</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03589238040404414</c:v>
+                  <c:v>0.1999272864072583</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04391408082836971</c:v>
+                  <c:v>0.2109895497029373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05330285760851432</c:v>
+                  <c:v>0.2197937851911355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0642095534866976</c:v>
+                  <c:v>0.2261407935444578</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.07677228380358367</c:v>
+                  <c:v>0.2299704856320215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09110574595869582</c:v>
+                  <c:v>0.2313515973240805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1072897518892365</c:v>
+                  <c:v>0.2304591030157914</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1253582436984434</c:v>
+                  <c:v>0.2275449612781184</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1452903294933455</c:v>
+                  <c:v>0.2229075987278741</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1670048711320862</c:v>
+                  <c:v>0.2168642418058602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1903597910221842</c:v>
+                  <c:v>0.20972851993609</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2151565761543488</c:v>
+                  <c:v>0.2017942185048508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2411496013719762</c:v>
+                  <c:v>0.1933249334454928</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2680591005258537</c:v>
+                  <c:v>0.184548725808272</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.295586096347048</c:v>
+                  <c:v>0.1756566160171746</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3234274697779942</c:v>
+                  <c:v>0.1668037666554094</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3512895866726572</c:v>
+                  <c:v>0.1581123590114033</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3788993802808805</c:v>
+                  <c:v>0.1496753820315598</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4060123493089369</c:v>
+                  <c:v>0.1415607663360837</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.432417434908661</c:v>
+                  <c:v>0.1338154815724014</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4579391047533886</c:v>
+                  <c:v>0.1264693621568701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4824371774375269</c:v>
+                  <c:v>0.1195385346451378</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5058049870817304</c:v>
+                  <c:v>0.1130283949361837</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5279664570573657</c:v>
+                  <c:v>0.1069361322618074</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5488725655671158</c:v>
+                  <c:v>0.1012528262394714</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5684975785053438</c:v>
+                  <c:v>0.09596515894254756</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5868353192520122</c:v>
+                  <c:v>0.09105679048988301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6038956531909619</c:v>
+                  <c:v>0.0865094474241534</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6197012915822693</c:v>
+                  <c:v>0.08230377050480281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6342849650505118</c:v>
+                  <c:v>0.07841996409584288</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6476869790381677</c:v>
+                  <c:v>0.07483828413012775</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6599531388758961</c:v>
+                  <c:v>0.0715393963308576</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6711330173825069</c:v>
+                  <c:v>0.06850463134619372</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6812785302841178</c:v>
+                  <c:v>0.06571615890131519</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6904427819526272</c:v>
+                  <c:v>0.06315709907566004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.6986791442817434</c:v>
+                  <c:v>0.06081158538238909</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7060405336973632</c:v>
+                  <c:v>0.05866479143262317</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7125788544734823</c:v>
+                  <c:v>0.05670293055815157</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.7183445801193867</c:v>
+                  <c:v>0.05491323578398877</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.723386448252527</c:v>
+                  <c:v>0.05328392592625369</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7277512478548767</c:v>
+                  <c:v>0.05180416228448461</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7314836810089691</c:v>
+                  <c:v>0.05046399934922494</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7346262840687722</c:v>
+                  <c:v>0.04925433211033838</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.7372193957269048</c:v>
+                  <c:v>0.04816684189022072</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.7393011616049513</c:v>
+                  <c:v>0.04719394210606275</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.7409075668430076</c:v>
+                  <c:v>0.04632872495921003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.742072489729809</c:v>
+                  <c:v>0.04556490973485421</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.7428277707296003</c:v>
+                  <c:v>0.04489679315327308</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7432032923593476</c:v>
+                  <c:v>0.04431920202957667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.7432270662808249</c:v>
+                  <c:v>0.04382744836028268</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7429253247244386</c:v>
+                  <c:v>0.04341728685230798</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.7423226139800843</c:v>
+                  <c:v>0.04308487483537289</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7414418881963907</c:v>
+                  <c:v>0.04282673444623512</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.7403046021419173</c:v>
+                  <c:v>0.04263971693777588</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.7389308019160602</c:v>
+                  <c:v>0.04252096894398901</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.7373392128669686</c:v>
+                  <c:v>0.04246790052046521</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.7355473241899728</c:v>
+                  <c:v>0.04247815477679073</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7335714698523298</c:v>
+                  <c:v>0.04254957892071137</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7314269056264006</c:v>
+                  <c:v>0.04268019654269205</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7291278821202672</c:v>
+                  <c:v>0.04286818098270893</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7266877137777185</c:v>
+                  <c:v>0.04311182963807381</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.7241188438830064</c:v>
+                  <c:v>0.04340953909132688</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.721432905653526</c:v>
+                  <c:v>0.04375978096038468</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7186407795386552</c:v>
+                  <c:v>0.04416107839891426</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.7157526468679499</c:v>
+                  <c:v>0.04461198320307049</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.7127780400087687</c:v>
+                  <c:v>0.04511105351101733</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.7097258892039022</c:v>
+                  <c:v>0.04565683211374547</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.7066045662652762</c:v>
+                  <c:v>0.04624782542920394</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.7034219253013992</c:v>
+                  <c:v>0.04688248322617927</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.7001853406548536</c:v>
+                  <c:v>0.04755917921904276</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.6969017422224957</c:v>
+                  <c:v>0.04827619268865628</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.6935776483257414</c:v>
+                  <c:v>0.04903169131742769</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.690219196291824</c:v>
+                  <c:v>0.04982371545663174</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.6868321708996018</c:v>
+                  <c:v>0.05065016407040752</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.6834220308356559</c:v>
+                  <c:v>0.05150878262194022</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6799939332982817</c:v>
+                  <c:v>0.05239715318179078</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.6765527568787215</c:v>
+                  <c:v>0.05331268704469729</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.6731031228407439</c:v>
+                  <c:v>0.05425262013803898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.6696494149115531</c:v>
+                  <c:v>0.0552140114912836</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.6661957976890761</c:v>
+                  <c:v>0.0561937450101282</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.6627462337629904</c:v>
+                  <c:v>0.0571885347610416</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.6593044996394414</c:v>
+                  <c:v>0.05819493392131953</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.6558742005522958</c:v>
+                  <c:v>0.05920934748690682</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.652458784236978</c:v>
+                  <c:v>0.06022804875607041</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.6490615537364594</c:v>
+                  <c:v>0.06124719952312221</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.6456856793028058</c:v>
+                  <c:v>0.06226287382504945</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.6423342094518267</c:v>
+                  <c:v>0.06327108498799401</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.6390100812228087</c:v>
+                  <c:v>0.06426781562345033</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.6357161296900387</c:v>
+                  <c:v>0.06524905012964882</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.6324550967678156</c:v>
+                  <c:v>0.06621080916591673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,9 +1482,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$E$4</c:f>
+              <c:f>'Решение'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1805,10 +1808,313 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$E$5:$E$105</c:f>
+              <c:f>'Решение'!$D$5:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02771506886513422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03677389690736216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04734722979449746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05959862946720499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07367276319853303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08968169950110294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1076903849438545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1277030617962952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1496527551028899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1733959099827586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1987136857503707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2253203749545049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2528781613083558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2810163145710358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3093522572805393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3375118749163409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.365146915543435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.391948122961563</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4176536110748563</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4420527121396032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4649860127368969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4863425180488365</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.506054907066653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5240937312326754</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.540461234843694</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5551852879530715</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5683137522848783</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5799094621946881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5900458992261757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5988035672717404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6062670299442261</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6125225461448411</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6176562282085762</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6217526447264541</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6248937936211039</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6271583777349856</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6286213233406758</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6293534904781194</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6294215321866383</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6288878671577569</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6278107369189175</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.6262443243259576</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6242389149276912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6218410867440478</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6190939172634408</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6160371991134128</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6127076579855161</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6091391680871989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.6053629617265703</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6014078306762496</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5973003177660049</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5930648977672852</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5887241470947092</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5842989021917369</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5798084067158222</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5752704478130781</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5707014818904953</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.566116750368314</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5615303859367518</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5569555098582429</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.5524043208551545</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.5478881761087016</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5434176648714554</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5390026751664907</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5346524540132451</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5303756615853862</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5261804196708375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5220743547697054</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.5180646361330389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.51415800901484</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5103608233820822</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5066790583031434</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5031183422144264</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.4996839692483446</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.496380911793598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4932138294509992</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.4901870745452269</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4873046943549443</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.4845704302307798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4819877137827385</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.4795596603355569</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.4772890598721113</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4751783657108305</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4732296811926004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.4714447446851396</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4698249132473189</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4683711453312823</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.4670839829351561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4659635336521222</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4650094530910442</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4642209281679431</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4635966617846669</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.463134859419375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4628332181513752</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.4626889186290474</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4626986204630139</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4628584614867221</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4631640612730248</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4636105292285637</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4641924775087272</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2310,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2371,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2385,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9867285888662531</v>
+        <v>0.9128668649984811</v>
       </c>
       <c r="C6">
-        <v>0.01217163075259903</v>
+        <v>0.05941806613638473</v>
       </c>
       <c r="D6">
-        <v>0.001099780381147775</v>
+        <v>0.02771506886513422</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2399,13 +2705,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.9827744166661766</v>
+        <v>0.8930703897994909</v>
       </c>
       <c r="C7">
-        <v>0.01479885843067786</v>
+        <v>0.07015571329314703</v>
       </c>
       <c r="D7">
-        <v>0.002426724903145534</v>
+        <v>0.03677389690736216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2413,13 +2719,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9780021173704985</v>
+        <v>0.87043146926989</v>
       </c>
       <c r="C8">
-        <v>0.01796969903687595</v>
+        <v>0.08222130093561271</v>
       </c>
       <c r="D8">
-        <v>0.004028183592625587</v>
+        <v>0.04734722979449746</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2427,13 +2733,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.9722539224740094</v>
+        <v>0.8448489958030584</v>
       </c>
       <c r="C9">
-        <v>0.02178561984265326</v>
+        <v>0.09555237472973682</v>
       </c>
       <c r="D9">
-        <v>0.005960457683337319</v>
+        <v>0.05959862946720499</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2441,13 +2747,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.9653480181765067</v>
+        <v>0.8163289429228899</v>
       </c>
       <c r="C10">
-        <v>0.02636190856628304</v>
+        <v>0.1099982938785772</v>
       </c>
       <c r="D10">
-        <v>0.008290073257210245</v>
+        <v>0.07367276319853303</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2455,13 +2761,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.9570778260066589</v>
+        <v>0.7850099744332303</v>
       </c>
       <c r="C11">
-        <v>0.03182713671819873</v>
+        <v>0.1253083260656669</v>
       </c>
       <c r="D11">
-        <v>0.01109503727514239</v>
+        <v>0.08968169950110294</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2469,13 +2775,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.9472127954962882</v>
+        <v>0.7511800804548867</v>
       </c>
       <c r="C12">
-        <v>0.03832124121464905</v>
+        <v>0.1411295346012589</v>
       </c>
       <c r="D12">
-        <v>0.0144659632890628</v>
+        <v>0.1076903849438545</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2483,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.9355014596466626</v>
+        <v>0.7152788249483393</v>
       </c>
       <c r="C13">
-        <v>0.04599163810131969</v>
+        <v>0.1570181132553657</v>
       </c>
       <c r="D13">
-        <v>0.01850690225201769</v>
+        <v>0.1277030617962952</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2497,13 +2803,13 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.9216776378691066</v>
+        <v>0.6778815265024765</v>
       </c>
       <c r="C14">
-        <v>0.05498670912074416</v>
+        <v>0.1724657183946339</v>
       </c>
       <c r="D14">
-        <v>0.02333565301014928</v>
+        <v>0.1496527551028899</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2511,13 +2817,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.9054707170331457</v>
+        <v>0.6396650458050106</v>
       </c>
       <c r="C15">
-        <v>0.06544601942666423</v>
+        <v>0.186939044212231</v>
       </c>
       <c r="D15">
-        <v>0.02908326354019007</v>
+        <v>0.1733959099827586</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2525,13 +2831,13 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.8866208120168139</v>
+        <v>0.6013590278423713</v>
       </c>
       <c r="C16">
-        <v>0.07748680757914203</v>
+        <v>0.1999272864072583</v>
       </c>
       <c r="D16">
-        <v>0.03589238040404414</v>
+        <v>0.1987136857503707</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2539,13 +2845,13 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.8648991967872179</v>
+        <v>0.563690075342558</v>
       </c>
       <c r="C17">
-        <v>0.09118672238441236</v>
+        <v>0.2109895497029373</v>
       </c>
       <c r="D17">
-        <v>0.04391408082836971</v>
+        <v>0.2253203749545049</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2553,13 +2859,13 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.8401336098055834</v>
+        <v>0.5273280535005089</v>
       </c>
       <c r="C18">
-        <v>0.1065635325859023</v>
+        <v>0.2197937851911355</v>
       </c>
       <c r="D18">
-        <v>0.05330285760851432</v>
+        <v>0.2528781613083558</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2567,13 +2873,13 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.8122368437200793</v>
+        <v>0.4928428918845068</v>
       </c>
       <c r="C19">
-        <v>0.1235536027932231</v>
+        <v>0.2261407935444578</v>
       </c>
       <c r="D19">
-        <v>0.0642095534866976</v>
+        <v>0.2810163145710358</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2581,13 +2887,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.7812355421423468</v>
+        <v>0.4606772570874394</v>
       </c>
       <c r="C20">
-        <v>0.1419921740540695</v>
+        <v>0.2299704856320215</v>
       </c>
       <c r="D20">
-        <v>0.07677228380358367</v>
+        <v>0.3093522572805393</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2595,13 +2901,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.7472946699689796</v>
+        <v>0.4311365277595788</v>
       </c>
       <c r="C21">
-        <v>0.1615995840723245</v>
+        <v>0.2313515973240805</v>
       </c>
       <c r="D21">
-        <v>0.09110574595869582</v>
+        <v>0.3375118749163409</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2609,13 +2915,13 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.7107322335458031</v>
+        <v>0.4043939814407738</v>
       </c>
       <c r="C22">
-        <v>0.1819780145649603</v>
+        <v>0.2304591030157914</v>
       </c>
       <c r="D22">
-        <v>0.1072897518892365</v>
+        <v>0.365146915543435</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2623,13 +2929,13 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.672019117230808</v>
+        <v>0.3805069157603189</v>
       </c>
       <c r="C23">
-        <v>0.2026226390707485</v>
+        <v>0.2275449612781184</v>
       </c>
       <c r="D23">
-        <v>0.1253582436984434</v>
+        <v>0.391948122961563</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2637,13 +2943,13 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.631760787334768</v>
+        <v>0.3594387901972699</v>
       </c>
       <c r="C24">
-        <v>0.2229488831718864</v>
+        <v>0.2229075987278741</v>
       </c>
       <c r="D24">
-        <v>0.1452903294933455</v>
+        <v>0.4176536110748563</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2651,13 +2957,13 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.5906609783634248</v>
+        <v>0.3410830460545369</v>
       </c>
       <c r="C25">
-        <v>0.2423341505044889</v>
+        <v>0.2168642418058602</v>
       </c>
       <c r="D25">
-        <v>0.1670048711320862</v>
+        <v>0.4420527121396032</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2665,13 +2971,13 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.5494715114712969</v>
+        <v>0.3252854673270134</v>
       </c>
       <c r="C26">
-        <v>0.2601686975065187</v>
+        <v>0.20972851993609</v>
       </c>
       <c r="D26">
-        <v>0.1903597910221842</v>
+        <v>0.4649860127368969</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2679,13 +2985,13 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.5089357954012632</v>
+        <v>0.311863263446313</v>
       </c>
       <c r="C27">
-        <v>0.2759076284443878</v>
+        <v>0.2017942185048508</v>
       </c>
       <c r="D27">
-        <v>0.2151565761543488</v>
+        <v>0.4863425180488365</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2693,13 +2999,13 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.4697350780894052</v>
+        <v>0.3006201594878544</v>
       </c>
       <c r="C28">
-        <v>0.2891153205386184</v>
+        <v>0.1933249334454928</v>
       </c>
       <c r="D28">
-        <v>0.2411496013719762</v>
+        <v>0.506054907066653</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2707,13 +3013,13 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.4324455878370762</v>
+        <v>0.2913575429590529</v>
       </c>
       <c r="C29">
-        <v>0.2994953116370699</v>
+        <v>0.184548725808272</v>
       </c>
       <c r="D29">
-        <v>0.2680591005258537</v>
+        <v>0.5240937312326754</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2721,13 +3027,13 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.3975117383694692</v>
+        <v>0.2838821491391317</v>
       </c>
       <c r="C30">
-        <v>0.3069021652834826</v>
+        <v>0.1756566160171746</v>
       </c>
       <c r="D30">
-        <v>0.295586096347048</v>
+        <v>0.540461234843694</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2735,13 +3041,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.3652367234645962</v>
+        <v>0.2780109453915193</v>
       </c>
       <c r="C31">
-        <v>0.3113358067574094</v>
+        <v>0.1668037666554094</v>
       </c>
       <c r="D31">
-        <v>0.3234274697779942</v>
+        <v>0.5551852879530715</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2749,13 +3055,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.335788388492302</v>
+        <v>0.2735738887037186</v>
       </c>
       <c r="C32">
-        <v>0.3129220248350406</v>
+        <v>0.1581123590114033</v>
       </c>
       <c r="D32">
-        <v>0.3512895866726572</v>
+        <v>0.5683137522848783</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2763,13 +3069,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.3092161114928904</v>
+        <v>0.2704151557737524</v>
       </c>
       <c r="C33">
-        <v>0.3118845082262288</v>
+        <v>0.1496753820315598</v>
       </c>
       <c r="D33">
-        <v>0.3788993802808805</v>
+        <v>0.5799094621946881</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2777,13 +3083,13 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.2854737741363608</v>
+        <v>0.2683933344377408</v>
       </c>
       <c r="C34">
-        <v>0.3085138765547021</v>
+        <v>0.1415607663360837</v>
       </c>
       <c r="D34">
-        <v>0.4060123493089369</v>
+        <v>0.5900458992261757</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2791,13 +3097,13 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.2644444400851965</v>
+        <v>0.2673809511558582</v>
       </c>
       <c r="C35">
-        <v>0.3031381250061424</v>
+        <v>0.1338154815724014</v>
       </c>
       <c r="D35">
-        <v>0.432417434908661</v>
+        <v>0.5988035672717404</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2805,13 +3111,13 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.2459635389923977</v>
+        <v>0.2672636078989039</v>
       </c>
       <c r="C36">
-        <v>0.2960973562542135</v>
+        <v>0.1264693621568701</v>
       </c>
       <c r="D36">
-        <v>0.4579391047533886</v>
+        <v>0.6062670299442261</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2819,13 +3125,13 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.2298386705978917</v>
+        <v>0.2679389192100212</v>
       </c>
       <c r="C37">
-        <v>0.2877241519645812</v>
+        <v>0.1195385346451378</v>
       </c>
       <c r="D37">
-        <v>0.4824371774375269</v>
+        <v>0.6125225461448411</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2833,13 +3139,13 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.2158652651167574</v>
+        <v>0.2693153768552402</v>
       </c>
       <c r="C38">
-        <v>0.278329747801512</v>
+        <v>0.1130283949361837</v>
       </c>
       <c r="D38">
-        <v>0.5058049870817304</v>
+        <v>0.6176562282085762</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2847,13 +3153,13 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.2038381257359866</v>
+        <v>0.2713112230117386</v>
       </c>
       <c r="C39">
-        <v>0.2681954172066475</v>
+        <v>0.1069361322618074</v>
       </c>
       <c r="D39">
-        <v>0.5279664570573657</v>
+        <v>0.6217526447264541</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2861,13 +3167,13 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.1935593370898071</v>
+        <v>0.2738533801394248</v>
       </c>
       <c r="C40">
-        <v>0.2575680973430768</v>
+        <v>0.1012528262394714</v>
       </c>
       <c r="D40">
-        <v>0.5488725655671158</v>
+        <v>0.6248937936211039</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2875,13 +3181,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.1848432205091711</v>
+        <v>0.2768764633224668</v>
       </c>
       <c r="C41">
-        <v>0.2466592009854848</v>
+        <v>0.09596515894254756</v>
       </c>
       <c r="D41">
-        <v>0.5684975785053438</v>
+        <v>0.6271583777349856</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2889,13 +3195,13 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.1775190407847765</v>
+        <v>0.2803218861694412</v>
       </c>
       <c r="C42">
-        <v>0.2356456399632111</v>
+        <v>0.09105679048988301</v>
       </c>
       <c r="D42">
-        <v>0.5868353192520122</v>
+        <v>0.6286213233406758</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2903,13 +3209,13 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.1714320971049082</v>
+        <v>0.2841370620977272</v>
       </c>
       <c r="C43">
-        <v>0.2246722497041296</v>
+        <v>0.0865094474241534</v>
       </c>
       <c r="D43">
-        <v>0.6038956531909619</v>
+        <v>0.6293534904781194</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2917,13 +3223,13 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.1664437181610198</v>
+        <v>0.2882746973085589</v>
       </c>
       <c r="C44">
-        <v>0.2138549902567107</v>
+        <v>0.08230377050480281</v>
       </c>
       <c r="D44">
-        <v>0.6197012915822693</v>
+        <v>0.6294215321866383</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2931,13 +3237,13 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.1624305624642918</v>
+        <v>0.2926921687464002</v>
       </c>
       <c r="C45">
-        <v>0.2032844724851962</v>
+        <v>0.07841996409584288</v>
       </c>
       <c r="D45">
-        <v>0.6342849650505118</v>
+        <v>0.6288878671577569</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2945,13 +3251,13 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.1592835177030871</v>
+        <v>0.2973509789509547</v>
       </c>
       <c r="C46">
-        <v>0.193029503258745</v>
+        <v>0.07483828413012775</v>
       </c>
       <c r="D46">
-        <v>0.6476869790381677</v>
+        <v>0.6278107369189175</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2959,13 +3265,13 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.1569064047319697</v>
+        <v>0.3022162793431848</v>
       </c>
       <c r="C47">
-        <v>0.1831404563921341</v>
+        <v>0.0715393963308576</v>
       </c>
       <c r="D47">
-        <v>0.6599531388758961</v>
+        <v>0.6262443243259576</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2973,13 +3279,13 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.1552146235124581</v>
+        <v>0.3072564537261151</v>
       </c>
       <c r="C48">
-        <v>0.1736523591050348</v>
+        <v>0.06850463134619372</v>
       </c>
       <c r="D48">
-        <v>0.6711330173825069</v>
+        <v>0.6242389149276912</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2987,13 +3293,13 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.1541338279308474</v>
+        <v>0.312442754354637</v>
       </c>
       <c r="C49">
-        <v>0.1645876417850347</v>
+        <v>0.06571615890131519</v>
       </c>
       <c r="D49">
-        <v>0.6812785302841178</v>
+        <v>0.6218410867440478</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3001,13 +3307,13 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.1535986806558116</v>
+        <v>0.3177489836608991</v>
       </c>
       <c r="C50">
-        <v>0.155958537391561</v>
+        <v>0.06315709907566004</v>
       </c>
       <c r="D50">
-        <v>0.6904427819526272</v>
+        <v>0.6190939172634408</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3015,13 +3321,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.1535517147287667</v>
+        <v>0.323151215504198</v>
       </c>
       <c r="C51">
-        <v>0.1477691409894898</v>
+        <v>0.06081158538238909</v>
       </c>
       <c r="D51">
-        <v>0.6986791442817434</v>
+        <v>0.6160371991134128</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3029,13 +3335,13 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.1539423124575389</v>
+        <v>0.3286275505818607</v>
       </c>
       <c r="C52">
-        <v>0.1400171538450977</v>
+        <v>0.05866479143262317</v>
       </c>
       <c r="D52">
-        <v>0.7060405336973632</v>
+        <v>0.6127076579855161</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3043,13 +3349,13 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.1547258020213378</v>
+        <v>0.3341579013546493</v>
       </c>
       <c r="C53">
-        <v>0.1326953435051798</v>
+        <v>0.05670293055815157</v>
       </c>
       <c r="D53">
-        <v>0.7125788544734823</v>
+        <v>0.6091391680871989</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3057,13 +3363,13 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.1558626661605453</v>
+        <v>0.3397238024894407</v>
       </c>
       <c r="C54">
-        <v>0.1257927537200679</v>
+        <v>0.05491323578398877</v>
       </c>
       <c r="D54">
-        <v>0.7183445801193867</v>
+        <v>0.6053629617265703</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3071,13 +3377,13 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.1573178540672083</v>
+        <v>0.3453082433974966</v>
       </c>
       <c r="C55">
-        <v>0.1192956976802646</v>
+        <v>0.05328392592625369</v>
       </c>
       <c r="D55">
-        <v>0.723386448252527</v>
+        <v>0.6014078306762496</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3085,13 +3391,13 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.1590601861448779</v>
+        <v>0.3508955199495103</v>
       </c>
       <c r="C56">
-        <v>0.1131885660002453</v>
+        <v>0.05180416228448461</v>
       </c>
       <c r="D56">
-        <v>0.7277512478548767</v>
+        <v>0.5973003177660049</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3099,13 +3405,13 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.1610618409960124</v>
+        <v>0.3564711028834897</v>
       </c>
       <c r="C57">
-        <v>0.1074544779950184</v>
+        <v>0.05046399934922494</v>
       </c>
       <c r="D57">
-        <v>0.7314836810089691</v>
+        <v>0.5930648977672852</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3113,13 +3419,13 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.1632979143631764</v>
+        <v>0.3620215207949522</v>
       </c>
       <c r="C58">
-        <v>0.1020758015680513</v>
+        <v>0.04925433211033838</v>
       </c>
       <c r="D58">
-        <v>0.7346262840687722</v>
+        <v>0.5887241470947092</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3127,13 +3433,13 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.1657460404921796</v>
+        <v>0.3675342559180422</v>
       </c>
       <c r="C59">
-        <v>0.09703456378091553</v>
+        <v>0.04816684189022072</v>
       </c>
       <c r="D59">
-        <v>0.7372193957269048</v>
+        <v>0.5842989021917369</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3141,13 +3447,13 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.1683860673040436</v>
+        <v>0.3729976511781147</v>
       </c>
       <c r="C60">
-        <v>0.09231277109100494</v>
+        <v>0.04719394210606275</v>
       </c>
       <c r="D60">
-        <v>0.7393011616049513</v>
+        <v>0.5798084067158222</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3155,13 +3461,13 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.1711997777348682</v>
+        <v>0.3784008272277116</v>
       </c>
       <c r="C61">
-        <v>0.08789265542212403</v>
+        <v>0.04632872495921003</v>
       </c>
       <c r="D61">
-        <v>0.7409075668430076</v>
+        <v>0.5752704478130781</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3169,13 +3475,13 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.1741706505543462</v>
+        <v>0.3837336083746503</v>
       </c>
       <c r="C62">
-        <v>0.08375685971584472</v>
+        <v>0.04556490973485421</v>
       </c>
       <c r="D62">
-        <v>0.742072489729809</v>
+        <v>0.5707014818904953</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3183,13 +3489,13 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.1772836548635348</v>
+        <v>0.3889864564784127</v>
       </c>
       <c r="C63">
-        <v>0.07988857440686481</v>
+        <v>0.04489679315327308</v>
       </c>
       <c r="D63">
-        <v>0.7428277707296003</v>
+        <v>0.566116750368314</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3197,13 +3503,13 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.1805250732801758</v>
+        <v>0.3941504120336713</v>
       </c>
       <c r="C64">
-        <v>0.07627163436047647</v>
+        <v>0.04431920202957667</v>
       </c>
       <c r="D64">
-        <v>0.7432032923593476</v>
+        <v>0.5615303859367518</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3211,13 +3517,13 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.183882349538134</v>
+        <v>0.3992170417814742</v>
       </c>
       <c r="C65">
-        <v>0.07289058418104083</v>
+        <v>0.04382744836028268</v>
       </c>
       <c r="D65">
-        <v>0.7432270662808249</v>
+        <v>0.5569555098582429</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3225,13 +3531,13 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.1873439568570623</v>
+        <v>0.4041783922925374</v>
       </c>
       <c r="C66">
-        <v>0.0697307184184989</v>
+        <v>0.04341728685230798</v>
       </c>
       <c r="D66">
-        <v>0.7429253247244386</v>
+        <v>0.5524043208551545</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3239,13 +3545,13 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.1908992839843017</v>
+        <v>0.4090269490559253</v>
       </c>
       <c r="C67">
-        <v>0.06677810203561377</v>
+        <v>0.04308487483537289</v>
       </c>
       <c r="D67">
-        <v>0.7423226139800843</v>
+        <v>0.5478881761087016</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3253,13 +3559,13 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.1945385362806736</v>
+        <v>0.4137556006823092</v>
       </c>
       <c r="C68">
-        <v>0.06401957552293545</v>
+        <v>0.04282673444623512</v>
       </c>
       <c r="D68">
-        <v>0.7414418881963907</v>
+        <v>0.5434176648714554</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3267,13 +3573,13 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.1982526496234604</v>
+        <v>0.4183576078957332</v>
       </c>
       <c r="C69">
-        <v>0.06144274823462207</v>
+        <v>0.04263971693777588</v>
       </c>
       <c r="D69">
-        <v>0.7403046021419173</v>
+        <v>0.5390026751664907</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3281,13 +3587,13 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.2020332152418273</v>
+        <v>0.4228265770427656</v>
       </c>
       <c r="C70">
-        <v>0.05903598284211228</v>
+        <v>0.04252096894398901</v>
       </c>
       <c r="D70">
-        <v>0.7389308019160602</v>
+        <v>0.5346524540132451</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3295,13 +3601,13 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.2058724138900966</v>
+        <v>0.4271564378941484</v>
       </c>
       <c r="C71">
-        <v>0.05678837324293468</v>
+        <v>0.04246790052046521</v>
       </c>
       <c r="D71">
-        <v>0.7373392128669686</v>
+        <v>0.5303756615853862</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3309,13 +3615,13 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.2097629580098837</v>
+        <v>0.4313414255523716</v>
       </c>
       <c r="C72">
-        <v>0.05468971780014329</v>
+        <v>0.04247815477679073</v>
       </c>
       <c r="D72">
-        <v>0.7355473241899728</v>
+        <v>0.5261804196708375</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3323,13 +3629,13 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.213698040739614</v>
+        <v>0.4353760663095831</v>
       </c>
       <c r="C73">
-        <v>0.05273048940805612</v>
+        <v>0.04254957892071137</v>
       </c>
       <c r="D73">
-        <v>0.7335714698523298</v>
+        <v>0.5220743547697054</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3337,13 +3643,13 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.2176712908050416</v>
+        <v>0.439255167324269</v>
       </c>
       <c r="C74">
-        <v>0.05090180356855769</v>
+        <v>0.04268019654269205</v>
       </c>
       <c r="D74">
-        <v>0.7314269056264006</v>
+        <v>0.5180646361330389</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3351,13 +3657,13 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.2216767324720409</v>
+        <v>0.442973810002451</v>
       </c>
       <c r="C75">
-        <v>0.04919538540769171</v>
+        <v>0.04286818098270893</v>
       </c>
       <c r="D75">
-        <v>0.7291278821202672</v>
+        <v>0.51415800901484</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3365,13 +3671,13 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.2257087498673742</v>
+        <v>0.4465273469798439</v>
       </c>
       <c r="C76">
-        <v>0.04760353635490716</v>
+        <v>0.04311182963807381</v>
       </c>
       <c r="D76">
-        <v>0.7266877137777185</v>
+        <v>0.5103608233820822</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3379,13 +3685,13 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.229762055078015</v>
+        <v>0.4499114026055295</v>
       </c>
       <c r="C77">
-        <v>0.04611910103897846</v>
+        <v>0.04340953909132688</v>
       </c>
       <c r="D77">
-        <v>0.7241188438830064</v>
+        <v>0.5066790583031434</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3393,13 +3699,13 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.2338316595279944</v>
+        <v>0.4531218768251887</v>
       </c>
       <c r="C78">
-        <v>0.04473543481847934</v>
+        <v>0.04375978096038468</v>
       </c>
       <c r="D78">
-        <v>0.721432905653526</v>
+        <v>0.5031183422144264</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3407,13 +3713,13 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.2379128482062852</v>
+        <v>0.4561549523527409</v>
       </c>
       <c r="C79">
-        <v>0.04344637225505928</v>
+        <v>0.04416107839891426</v>
       </c>
       <c r="D79">
-        <v>0.7186407795386552</v>
+        <v>0.4996839692483446</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3421,13 +3727,13 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.2420011563821328</v>
+        <v>0.4590071050033313</v>
       </c>
       <c r="C80">
-        <v>0.042246196749917</v>
+        <v>0.04461198320307049</v>
       </c>
       <c r="D80">
-        <v>0.7157526468679499</v>
+        <v>0.496380911793598</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3435,13 +3741,13 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.2460923484973751</v>
+        <v>0.4616751170379832</v>
       </c>
       <c r="C81">
-        <v>0.04112961149385601</v>
+        <v>0.04511105351101733</v>
       </c>
       <c r="D81">
-        <v>0.7127780400087687</v>
+        <v>0.4932138294509992</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3449,13 +3755,13 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.250182398970215</v>
+        <v>0.4641560933410273</v>
       </c>
       <c r="C82">
-        <v>0.04009171182588249</v>
+        <v>0.04565683211374547</v>
       </c>
       <c r="D82">
-        <v>0.7097258892039022</v>
+        <v>0.4901870745452269</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3463,13 +3769,13 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.2542674746829513</v>
+        <v>0.4664474802158515</v>
       </c>
       <c r="C83">
-        <v>0.03912795905177219</v>
+        <v>0.04624782542920394</v>
       </c>
       <c r="D83">
-        <v>0.7066045662652762</v>
+        <v>0.4873046943549443</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3477,13 +3783,13 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.2583439189584381</v>
+        <v>0.4685470865430406</v>
       </c>
       <c r="C84">
-        <v>0.03823415574016238</v>
+        <v>0.04688248322617927</v>
       </c>
       <c r="D84">
-        <v>0.7034219253013992</v>
+        <v>0.4845704302307798</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3491,13 +3797,13 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.2624082368574631</v>
+        <v>0.4704531069982185</v>
       </c>
       <c r="C85">
-        <v>0.03740642248768303</v>
+        <v>0.04755917921904276</v>
       </c>
       <c r="D85">
-        <v>0.7001853406548536</v>
+        <v>0.4819877137827385</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3505,13 +3811,13 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.266457081652587</v>
+        <v>0.4721641469757866</v>
       </c>
       <c r="C86">
-        <v>0.03664117612491701</v>
+        <v>0.04827619268865628</v>
       </c>
       <c r="D86">
-        <v>0.6969017422224957</v>
+        <v>0.4795596603355569</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3519,13 +3825,13 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.2704872423539273</v>
+        <v>0.4736792488104606</v>
       </c>
       <c r="C87">
-        <v>0.03593510932033099</v>
+        <v>0.04903169131742769</v>
       </c>
       <c r="D87">
-        <v>0.6935776483257414</v>
+        <v>0.4772890598721113</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3533,13 +3839,13 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.2744956321794466</v>
+        <v>0.4749979188325374</v>
       </c>
       <c r="C88">
-        <v>0.03528517152872905</v>
+        <v>0.04982371545663174</v>
       </c>
       <c r="D88">
-        <v>0.690219196291824</v>
+        <v>0.4751783657108305</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3547,13 +3853,13 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.278479277876981</v>
+        <v>0.4761201547369917</v>
       </c>
       <c r="C89">
-        <v>0.03468855122341685</v>
+        <v>0.05065016407040752</v>
       </c>
       <c r="D89">
-        <v>0.6868321708996018</v>
+        <v>0.4732296811926004</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3561,13 +3867,13 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.282435309817899</v>
+        <v>0.4770464726929198</v>
       </c>
       <c r="C90">
-        <v>0.03414265934644477</v>
+        <v>0.05150878262194022</v>
       </c>
       <c r="D90">
-        <v>0.6834220308356559</v>
+        <v>0.4714447446851396</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3575,13 +3881,13 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.2863609527932481</v>
+        <v>0.4777779335708899</v>
       </c>
       <c r="C91">
-        <v>0.0336451139084699</v>
+        <v>0.05239715318179078</v>
       </c>
       <c r="D91">
-        <v>0.6799939332982817</v>
+        <v>0.4698249132473189</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3589,13 +3895,13 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.2902535174527897</v>
+        <v>0.47831616762402</v>
       </c>
       <c r="C92">
-        <v>0.03319372566848863</v>
+        <v>0.05331268704469729</v>
       </c>
       <c r="D92">
-        <v>0.6765527568787215</v>
+        <v>0.4683711453312823</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3603,13 +3909,13 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.2941103923356762</v>
+        <v>0.4786633969268045</v>
       </c>
       <c r="C93">
-        <v>0.0327864848235797</v>
+        <v>0.05425262013803898</v>
       </c>
       <c r="D93">
-        <v>0.6731031228407439</v>
+        <v>0.4670839829351561</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3617,13 +3923,13 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.297929036448879</v>
+        <v>0.4788224548565937</v>
       </c>
       <c r="C94">
-        <v>0.03242154863956774</v>
+        <v>0.0552140114912836</v>
       </c>
       <c r="D94">
-        <v>0.6696494149115531</v>
+        <v>0.4659635336521222</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3631,13 +3937,13 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.3017069723559901</v>
+        <v>0.4787968018988271</v>
       </c>
       <c r="C95">
-        <v>0.03209722995493366</v>
+        <v>0.0561937450101282</v>
       </c>
       <c r="D95">
-        <v>0.6661957976890761</v>
+        <v>0.4650094530910442</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3645,13 +3951,13 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.3054417797448371</v>
+        <v>0.4785905370710149</v>
       </c>
       <c r="C96">
-        <v>0.03181198649217241</v>
+        <v>0.0571885347610416</v>
       </c>
       <c r="D96">
-        <v>0.6627462337629904</v>
+        <v>0.4642209281679431</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3659,13 +3965,13 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.3091310894475766</v>
+        <v>0.4782084042940132</v>
       </c>
       <c r="C97">
-        <v>0.031564410912982</v>
+        <v>0.05819493392131953</v>
       </c>
       <c r="D97">
-        <v>0.6593044996394414</v>
+        <v>0.4635966617846669</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3673,13 +3979,13 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.3127725778916621</v>
+        <v>0.4776557930937178</v>
       </c>
       <c r="C98">
-        <v>0.031353221556042</v>
+        <v>0.05920934748690682</v>
       </c>
       <c r="D98">
-        <v>0.6558742005522958</v>
+        <v>0.463134859419375</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3687,13 +3993,13 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.3163639619644057</v>
+        <v>0.476938733092554</v>
       </c>
       <c r="C99">
-        <v>0.03117725379861626</v>
+        <v>0.06022804875607041</v>
       </c>
       <c r="D99">
-        <v>0.652458784236978</v>
+        <v>0.4628332181513752</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3701,13 +4007,13 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.3199029942778188</v>
+        <v>0.4760638818478301</v>
       </c>
       <c r="C100">
-        <v>0.03103545198572184</v>
+        <v>0.06124719952312221</v>
       </c>
       <c r="D100">
-        <v>0.6490615537364594</v>
+        <v>0.4626889186290474</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3715,13 +4021,13 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.3233874588240986</v>
+        <v>0.4750385057119363</v>
       </c>
       <c r="C101">
-        <v>0.03092686187309549</v>
+        <v>0.06226287382504945</v>
       </c>
       <c r="D101">
-        <v>0.6456856793028058</v>
+        <v>0.4626986204630139</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3729,13 +4035,13 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.3268151670155513</v>
+        <v>0.4738704535252836</v>
       </c>
       <c r="C102">
-        <v>0.03085062353262194</v>
+        <v>0.06327108498799401</v>
       </c>
       <c r="D102">
-        <v>0.6423342094518267</v>
+        <v>0.4628584614867221</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3743,13 +4049,13 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.3301839541059501</v>
+        <v>0.4725681231035245</v>
       </c>
       <c r="C103">
-        <v>0.03080596467124119</v>
+        <v>0.06426781562345033</v>
       </c>
       <c r="D103">
-        <v>0.6390100812228087</v>
+        <v>0.4631640612730248</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3757,13 +4063,13 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.3334916759933505</v>
+        <v>0.4711404206417872</v>
       </c>
       <c r="C104">
-        <v>0.03079219431661088</v>
+        <v>0.06524905012964882</v>
       </c>
       <c r="D104">
-        <v>0.6357161296900387</v>
+        <v>0.4636105292285637</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3771,13 +4077,13 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.3367362064072262</v>
+        <v>0.4695967133253557</v>
       </c>
       <c r="C105">
-        <v>0.03080869682495823</v>
+        <v>0.06621080916591673</v>
       </c>
       <c r="D105">
-        <v>0.6324550967678156</v>
+        <v>0.4641924775087272</v>
       </c>
     </row>
   </sheetData>

--- a/arch/SIRS.xlsx
+++ b/arch/SIRS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,13 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.93</t>
+    <t>0.9902</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>0.0056</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.0042</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -67,10 +67,13 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.0841</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>Метод решения:</t>
@@ -529,307 +532,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9128668649984811</c:v>
+                  <c:v>0.9898047500760778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8930703897994909</c:v>
+                  <c:v>0.9893827548056259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87043146926989</c:v>
+                  <c:v>0.9889325539248318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8448489958030584</c:v>
+                  <c:v>0.9884526063694045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8163289429228899</c:v>
+                  <c:v>0.9879412864170313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7850099744332303</c:v>
+                  <c:v>0.9873968797082142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7511800804548867</c:v>
+                  <c:v>0.9868175791504171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7152788249483393</c:v>
+                  <c:v>0.9862014807120192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6778815265024765</c:v>
+                  <c:v>0.9855465791143323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6396650458050106</c:v>
+                  <c:v>0.9848507634319332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6013590278423713</c:v>
+                  <c:v>0.9841118126137947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.563690075342558</c:v>
+                  <c:v>0.9833273909402065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5273280535005089</c:v>
+                  <c:v>0.982495043433267</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4928428918845068</c:v>
+                  <c:v>0.9816121912418244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4606772570874394</c:v>
+                  <c:v>0.9806761270251798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4311365277595788</c:v>
+                  <c:v>0.9796840103636428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4043939814407738</c:v>
+                  <c:v>0.978632863228185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3805069157603189</c:v>
+                  <c:v>0.9775195655459726</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3594387901972699</c:v>
+                  <c:v>0.9763408509035078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3410830460545369</c:v>
+                  <c:v>0.975093302434461</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3252854673270134</c:v>
+                  <c:v>0.9737733489450642</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.311863263446313</c:v>
+                  <c:v>0.9723772613361316</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3006201594878544</c:v>
+                  <c:v>0.9709011493874037</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2913575429590529</c:v>
+                  <c:v>0.9693409589769308</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2838821491391317</c:v>
+                  <c:v>0.9676924698156162</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2780109453915193</c:v>
+                  <c:v>0.965951293784778</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2735738887037186</c:v>
+                  <c:v>0.9641128739726165</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2704151557737524</c:v>
+                  <c:v>0.9621724845137102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2683933344377408</c:v>
+                  <c:v>0.9601252313440237</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2673809511558582</c:v>
+                  <c:v>0.9579660539922813</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2672636078989039</c:v>
+                  <c:v>0.9556897285367895</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2679389192100212</c:v>
+                  <c:v>0.9532908718647272</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2693153768552402</c:v>
+                  <c:v>0.9507639473783477</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2713112230117386</c:v>
+                  <c:v>0.9481032722992284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2738533801394248</c:v>
+                  <c:v>0.9453030267273865</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2768764633224668</c:v>
+                  <c:v>0.9423572646164471</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.2803218861694412</c:v>
+                  <c:v>0.9392599268287549</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2841370620977272</c:v>
+                  <c:v>0.9360048564349861</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2882746973085589</c:v>
+                  <c:v>0.9325858164210148</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2926921687464002</c:v>
+                  <c:v>0.9289965099600821</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2973509789509547</c:v>
+                  <c:v>0.9252306034002121</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3022162793431848</c:v>
+                  <c:v>0.9212817521048443</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3072564537261151</c:v>
+                  <c:v>0.9171436292682861</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.312442754354637</c:v>
+                  <c:v>0.9128099578063548</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3177489836608991</c:v>
+                  <c:v>0.9082745453959984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.323151215504198</c:v>
+                  <c:v>0.903531322705338</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3286275505818607</c:v>
+                  <c:v>0.898574384817115</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3341579013546493</c:v>
+                  <c:v>0.8933980358036929</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3397238024894407</c:v>
+                  <c:v>0.8879968363604351</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3453082433974966</c:v>
+                  <c:v>0.8823656543464991</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3508955199495103</c:v>
+                  <c:v>0.8764997180180785</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3564711028834897</c:v>
+                  <c:v>0.8703946716693653</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3620215207949522</c:v>
+                  <c:v>0.8640466333217129</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3675342559180422</c:v>
+                  <c:v>0.8574522540226829</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3729976511781147</c:v>
+                  <c:v>0.8506087782351937</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3784008272277116</c:v>
+                  <c:v>0.8435141047145031</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3837336083746503</c:v>
+                  <c:v>0.8361668471892553</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3889864564784127</c:v>
+                  <c:v>0.8285663940845954</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.3941504120336713</c:v>
+                  <c:v>0.8207129664529907</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.3992170417814742</c:v>
+                  <c:v>0.8126076732147087</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4041783922925374</c:v>
+                  <c:v>0.8042525627578635</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.4090269490559253</c:v>
+                  <c:v>0.7956506699105877</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.4137556006823092</c:v>
+                  <c:v>0.7868060572782135</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.4183576078957332</c:v>
+                  <c:v>0.7777238499391492</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.4228265770427656</c:v>
+                  <c:v>0.7684102625169147</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.4271564378941484</c:v>
+                  <c:v>0.7588726176945308</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.4313414255523716</c:v>
+                  <c:v>0.7491193553125333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.4353760663095831</c:v>
+                  <c:v>0.7391600312938693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.439255167324269</c:v>
+                  <c:v>0.7290053057675437</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.442973810002451</c:v>
+                  <c:v>0.7186669199167757</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.4465273469798439</c:v>
+                  <c:v>0.7081576612542639</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.4499114026055295</c:v>
+                  <c:v>0.6974913172234963</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.4531218768251887</c:v>
+                  <c:v>0.6866826172364396</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.4561549523527409</c:v>
+                  <c:v>0.6757471634790653</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.4590071050033313</c:v>
+                  <c:v>0.6647013510408968</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.4616751170379832</c:v>
+                  <c:v>0.6535622781464937</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4641560933410273</c:v>
+                  <c:v>0.6423476474786118</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4664474802158515</c:v>
+                  <c:v>0.6310756597778439</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.4685470865430406</c:v>
+                  <c:v>0.6197649010753089</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4704531069982185</c:v>
+                  <c:v>0.6084342250575426</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.4721641469757866</c:v>
+                  <c:v>0.5971026321711815</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.4736792488104606</c:v>
+                  <c:v>0.5857891471455497</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.4749979188325374</c:v>
+                  <c:v>0.5745126966414245</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.4761201547369917</c:v>
+                  <c:v>0.5632919887231459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.4770464726929198</c:v>
+                  <c:v>0.5521453957994342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.4777779335708899</c:v>
+                  <c:v>0.5410908425878702</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.47831616762402</c:v>
+                  <c:v>0.5301457005324435</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.4786633969268045</c:v>
+                  <c:v>0.5193266899475251</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4788224548565937</c:v>
+                  <c:v>0.5086497909806914</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.4787968018988271</c:v>
+                  <c:v>0.4981301642872892</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.4785905370710149</c:v>
+                  <c:v>0.4877820820981501</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.4782084042940132</c:v>
+                  <c:v>0.4776188701451586</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.4776557930937178</c:v>
+                  <c:v>0.4676528606939633</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.476938733092554</c:v>
+                  <c:v>0.4578953567250303</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.4760638818478301</c:v>
+                  <c:v>0.4483566071088129</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.4750385057119363</c:v>
+                  <c:v>0.4390457924425508</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.4738704535252836</c:v>
+                  <c:v>0.4299710210586418</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.4725681231035245</c:v>
+                  <c:v>0.4211393345801782</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4711404206417872</c:v>
+                  <c:v>0.4125567222896184</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.4695967133253557</c:v>
+                  <c:v>0.4042281434922287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,307 +1174,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05941806613638473</c:v>
+                  <c:v>0.005930603479899122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07015571329314703</c:v>
+                  <c:v>0.006280508806080708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08222130093561271</c:v>
+                  <c:v>0.006650814671338451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09555237472973682</c:v>
+                  <c:v>0.007042678801429867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1099982938785772</c:v>
+                  <c:v>0.007457320694794575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1253083260656669</c:v>
+                  <c:v>0.007896024434831502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1411295346012589</c:v>
+                  <c:v>0.008360141568982167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1570181132553657</c:v>
+                  <c:v>0.008851094047489813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1724657183946339</c:v>
+                  <c:v>0.009370377213154063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.186939044212231</c:v>
+                  <c:v>0.009919562831662714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1999272864072583</c:v>
+                  <c:v>0.01050030215014058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2109895497029373</c:v>
+                  <c:v>0.01111432896939378</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2197937851911355</c:v>
+                  <c:v>0.01176346271293041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2261407935444578</c:v>
+                  <c:v>0.0124496114731887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2299704856320215</c:v>
+                  <c:v>0.0131747750124864</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2313515973240805</c:v>
+                  <c:v>0.01394104769300489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2304591030157914</c:v>
+                  <c:v>0.01475062130662516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2275449612781184</c:v>
+                  <c:v>0.01560578777162889</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2229075987278741</c:v>
+                  <c:v>0.01650894165915761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2168642418058602</c:v>
+                  <c:v>0.01746258250788088</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20972851993609</c:v>
+                  <c:v>0.01846931688056013</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2017942185048508</c:v>
+                  <c:v>0.01953186011111268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1933249334454928</c:v>
+                  <c:v>0.02065303768539329</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.184548725808272</c:v>
+                  <c:v>0.02183578619323748</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1756566160171746</c:v>
+                  <c:v>0.02308315378338298</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1668037666554094</c:v>
+                  <c:v>0.02439830004674512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1581123590114033</c:v>
+                  <c:v>0.02578449524722421</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1496753820315598</c:v>
+                  <c:v>0.0272451188128408</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1415607663360837</c:v>
+                  <c:v>0.02878365699361757</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1338154815724014</c:v>
+                  <c:v>0.0304036995863654</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1264693621568701</c:v>
+                  <c:v>0.03210893562051966</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1195385346451378</c:v>
+                  <c:v>0.03390314789356875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1130283949361837</c:v>
+                  <c:v>0.03579020623960665</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1069361322618074</c:v>
+                  <c:v>0.03777405941033955</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1012528262394714</c:v>
+                  <c:v>0.03985872544472767</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.09596515894254756</c:v>
+                  <c:v>0.04204828040162435</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.09105679048988301</c:v>
+                  <c:v>0.04434684532959196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0865094474241534</c:v>
+                  <c:v>0.0467585713498653</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.08230377050480281</c:v>
+                  <c:v>0.0492876227325624</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.07841996409584288</c:v>
+                  <c:v>0.05193815785309739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.07483828413012775</c:v>
+                  <c:v>0.05471430792573492</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0715393963308576</c:v>
+                  <c:v>0.057620153424754</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.06850463134619372</c:v>
+                  <c:v>0.06065969812117158</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.06571615890131519</c:v>
+                  <c:v>0.06383684068480805</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.06315709907566004</c:v>
+                  <c:v>0.06715534382802008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.06081158538238909</c:v>
+                  <c:v>0.07061880099899098</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.05866479143262317</c:v>
+                  <c:v>0.07423060066928917</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.05670293055815157</c:v>
+                  <c:v>0.07799388830261529</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.05491323578398877</c:v>
+                  <c:v>0.08191152613926361</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.05328392592625369</c:v>
+                  <c:v>0.08598605098366963</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.05180416228448461</c:v>
+                  <c:v>0.09021963024016298</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.05046399934922494</c:v>
+                  <c:v>0.09461401650413431</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.04925433211033838</c:v>
+                  <c:v>0.09917050108145375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.04816684189022072</c:v>
+                  <c:v>0.103889866877079</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.04719394210606275</c:v>
+                  <c:v>0.1087723411630116</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.04632872495921003</c:v>
+                  <c:v>0.1138175488044633</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.04556490973485421</c:v>
+                  <c:v>0.1190244665893581</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.04489679315327308</c:v>
+                  <c:v>0.12439137936794</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.04431920202957667</c:v>
+                  <c:v>0.129915838763869</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.04382744836028268</c:v>
+                  <c:v>0.135594625263198</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.04341728685230798</c:v>
+                  <c:v>0.1414237145203467</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04308487483537289</c:v>
+                  <c:v>0.1473982487379587</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.04282673444623512</c:v>
+                  <c:v>0.1535125139777758</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.04263971693777588</c:v>
+                  <c:v>0.1597599242400501</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.04252096894398901</c:v>
+                  <c:v>0.1661330131075992</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.04246790052046521</c:v>
+                  <c:v>0.1726234336859262</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.04247815477679073</c:v>
+                  <c:v>0.1792219674820986</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.04254957892071137</c:v>
+                  <c:v>0.1859185427522884</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.04268019654269205</c:v>
+                  <c:v>0.1927022627118715</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.04286818098270893</c:v>
+                  <c:v>0.1995614438446107</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.04311182963807381</c:v>
+                  <c:v>0.2064836643714777</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04340953909132688</c:v>
+                  <c:v>0.2134558227488977</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04375978096038468</c:v>
+                  <c:v>0.2204642058652851</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04416107839891426</c:v>
+                  <c:v>0.2274945663991266</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.04461198320307049</c:v>
+                  <c:v>0.2345322085976004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04511105351101733</c:v>
+                  <c:v>0.241562081538207</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04565683211374547</c:v>
+                  <c:v>0.2485688787536418</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04624782542920394</c:v>
+                  <c:v>0.2555371429384984</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04688248322617927</c:v>
+                  <c:v>0.2624513743211956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.04755917921904276</c:v>
+                  <c:v>0.2692961411808611</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.04827619268865628</c:v>
+                  <c:v>0.2760561909208193</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.04903169131742769</c:v>
+                  <c:v>0.2827165600806305</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.04982371545663174</c:v>
+                  <c:v>0.2892626816787176</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05065016407040752</c:v>
+                  <c:v>0.2956804883274202</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.05150878262194022</c:v>
+                  <c:v>0.3019565096502625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05239715318179078</c:v>
+                  <c:v>0.3080779626543534</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05331268704469729</c:v>
+                  <c:v>0.3140328338648922</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05425262013803898</c:v>
+                  <c:v>0.319809952208448</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0552140114912836</c:v>
+                  <c:v>0.3253990518309224</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0561937450101282</c:v>
+                  <c:v>0.3307908242482921</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0571885347610416</c:v>
+                  <c:v>0.335976959446583</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05819493392131953</c:v>
+                  <c:v>0.3409501757653572</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05920934748690682</c:v>
+                  <c:v>0.3457042386100012</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.06022804875607041</c:v>
+                  <c:v>0.3502339682366168</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.06124719952312221</c:v>
+                  <c:v>0.3545352370344724</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06226287382504945</c:v>
+                  <c:v>0.3586049568908687</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06327108498799401</c:v>
+                  <c:v>0.3624410573590505</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06426781562345033</c:v>
+                  <c:v>0.366042455459631</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06524905012964882</c:v>
+                  <c:v>0.3694090180291156</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06621080916591673</c:v>
+                  <c:v>0.3725415175856798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,307 +1816,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02771506886513422</c:v>
+                  <c:v>0.004264646444023077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03677389690736216</c:v>
+                  <c:v>0.004336736388293484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04734722979449746</c:v>
+                  <c:v>0.004416631403829776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05959862946720499</c:v>
+                  <c:v>0.004504714829165766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07367276319853303</c:v>
+                  <c:v>0.004601392888174215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08968169950110294</c:v>
+                  <c:v>0.004707095856954292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1076903849438545</c:v>
+                  <c:v>0.004822279280600673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1277030617962952</c:v>
+                  <c:v>0.004947425240491015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1496527551028899</c:v>
+                  <c:v>0.005083043672513606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1733959099827586</c:v>
+                  <c:v>0.005229673736404035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1987136857503707</c:v>
+                  <c:v>0.005387885236064777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2253203749545049</c:v>
+                  <c:v>0.005558280090399771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2528781613083558</c:v>
+                  <c:v>0.005741493853802641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2810163145710358</c:v>
+                  <c:v>0.005938197284986929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3093522572805393</c:v>
+                  <c:v>0.006149097962333882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3375118749163409</c:v>
+                  <c:v>0.006374941943352339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.365146915543435</c:v>
+                  <c:v>0.006616515465189895</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.391948122961563</c:v>
+                  <c:v>0.006874646682398507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4176536110748563</c:v>
+                  <c:v>0.007150207437334723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4420527121396032</c:v>
+                  <c:v>0.007444115057658201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4649860127368969</c:v>
+                  <c:v>0.007757334174375798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4863425180488365</c:v>
+                  <c:v>0.008090878552755913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.506054907066653</c:v>
+                  <c:v>0.008445812927203223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5240937312326754</c:v>
+                  <c:v>0.008823254829831845</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.540461234843694</c:v>
+                  <c:v>0.009224376401000951</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5551852879530715</c:v>
+                  <c:v>0.009650406168477028</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5683137522848783</c:v>
+                  <c:v>0.01010263078015937</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5799094621946881</c:v>
+                  <c:v>0.01058239667344911</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5900458992261757</c:v>
+                  <c:v>0.01109111166235881</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5988035672717404</c:v>
+                  <c:v>0.0116302464213534</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6062670299442261</c:v>
+                  <c:v>0.01220133584269093</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6125225461448411</c:v>
+                  <c:v>0.01280598024170409</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6176562282085762</c:v>
+                  <c:v>0.01344584638204565</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6217526447264541</c:v>
+                  <c:v>0.01412266829043207</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6248937936211039</c:v>
+                  <c:v>0.01483824782788584</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6271583777349856</c:v>
+                  <c:v>0.01559445498192857</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6286213233406758</c:v>
+                  <c:v>0.0163932278416531</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6293534904781194</c:v>
+                  <c:v>0.01723657221514861</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6294215321866383</c:v>
+                  <c:v>0.01812656084642277</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6288878671577569</c:v>
+                  <c:v>0.01906533218682051</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6278107369189175</c:v>
+                  <c:v>0.02005508867405299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6262443243259576</c:v>
+                  <c:v>0.02109809447040176</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6242389149276912</c:v>
+                  <c:v>0.02219667261054246</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6218410867440478</c:v>
+                  <c:v>0.02335320150883728</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6190939172634408</c:v>
+                  <c:v>0.02457011077598166</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.6160371991134128</c:v>
+                  <c:v>0.02584987629567119</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.6127076579855161</c:v>
+                  <c:v>0.02719501451359595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.6091391680871989</c:v>
+                  <c:v>0.02860807589369189</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.6053629617265703</c:v>
+                  <c:v>0.0300916375003013</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.6014078306762496</c:v>
+                  <c:v>0.03164829466983133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5973003177660049</c:v>
+                  <c:v>0.03328065174175859</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5930648977672852</c:v>
+                  <c:v>0.03499131182650032</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5887241470947092</c:v>
+                  <c:v>0.03678286559683335</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5842989021917369</c:v>
+                  <c:v>0.03865787910023824</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5798084067158222</c:v>
+                  <c:v>0.04061888060179492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5752704478130781</c:v>
+                  <c:v>0.04266834648103379</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5707014818904953</c:v>
+                  <c:v>0.04480868622138668</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.566116750368314</c:v>
+                  <c:v>0.04704222654746468</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5615303859367518</c:v>
+                  <c:v>0.04937119478314043</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5569555098582429</c:v>
+                  <c:v>0.05179770152209339</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5524043208551545</c:v>
+                  <c:v>0.05432372272178997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5478881761087016</c:v>
+                  <c:v>0.05695108135145362</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5434176648714554</c:v>
+                  <c:v>0.05968142874401083</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5390026751664907</c:v>
+                  <c:v>0.06251622582080085</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5346524540132451</c:v>
+                  <c:v>0.06545672437548622</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5303756615853862</c:v>
+                  <c:v>0.06850394861954309</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5261804196708375</c:v>
+                  <c:v>0.07165867720536824</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5220743547697054</c:v>
+                  <c:v>0.07492142595384249</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5180646361330389</c:v>
+                  <c:v>0.078292431520585</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.51415800901484</c:v>
+                  <c:v>0.08177163623861385</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5103608233820822</c:v>
+                  <c:v>0.08535867437425854</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5066790583031434</c:v>
+                  <c:v>0.08905286002760621</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5031183422144264</c:v>
+                  <c:v>0.09285317689827556</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.4996839692483446</c:v>
+                  <c:v>0.09675827012180846</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.496380911793598</c:v>
+                  <c:v>0.1007664403615031</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.4932138294509992</c:v>
+                  <c:v>0.1048756403152996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4901870745452269</c:v>
+                  <c:v>0.1090834737677466</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4873046943549443</c:v>
+                  <c:v>0.113387197283658</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.4845704302307798</c:v>
+                  <c:v>0.1177837246034957</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4819877137827385</c:v>
+                  <c:v>0.1222696337615965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.4795596603355569</c:v>
+                  <c:v>0.1268411769079993</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.4772890598721113</c:v>
+                  <c:v>0.13149429277382</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.4751783657108305</c:v>
+                  <c:v>0.1362246216798582</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.4732296811926004</c:v>
+                  <c:v>0.1410275229494341</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.4714447446851396</c:v>
+                  <c:v>0.1458980945503034</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.4698249132473189</c:v>
+                  <c:v>0.1508311947577765</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.4683711453312823</c:v>
+                  <c:v>0.1558214656026645</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.4670839829351561</c:v>
+                  <c:v>0.160863357844027</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4659635336521222</c:v>
+                  <c:v>0.1659511571883863</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.4650094530910442</c:v>
+                  <c:v>0.1710790114644189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.4642209281679431</c:v>
+                  <c:v>0.176240958455267</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.4635966617846669</c:v>
+                  <c:v>0.1814309540894843</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.463134859419375</c:v>
+                  <c:v>0.1866429006960356</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.4628332181513752</c:v>
+                  <c:v>0.191870675038353</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.4626889186290474</c:v>
+                  <c:v>0.1971081558567148</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.4626986204630139</c:v>
+                  <c:v>0.2023492506665807</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.4628584614867221</c:v>
+                  <c:v>0.2075879215823078</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.4631640612730248</c:v>
+                  <c:v>0.2128182099601909</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4636105292285637</c:v>
+                  <c:v>0.2180342596812661</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.4641924775087272</c:v>
+                  <c:v>0.2232303389220916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2644,32 +2647,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2677,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.93</v>
+        <v>0.9902</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.0056</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2691,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9128668649984811</v>
+        <v>0.9898047500760778</v>
       </c>
       <c r="C6">
-        <v>0.05941806613638473</v>
+        <v>0.005930603479899122</v>
       </c>
       <c r="D6">
-        <v>0.02771506886513422</v>
+        <v>0.004264646444023077</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2705,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.8930703897994909</v>
+        <v>0.9893827548056259</v>
       </c>
       <c r="C7">
-        <v>0.07015571329314703</v>
+        <v>0.006280508806080708</v>
       </c>
       <c r="D7">
-        <v>0.03677389690736216</v>
+        <v>0.004336736388293484</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2719,13 +2722,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.87043146926989</v>
+        <v>0.9889325539248318</v>
       </c>
       <c r="C8">
-        <v>0.08222130093561271</v>
+        <v>0.006650814671338451</v>
       </c>
       <c r="D8">
-        <v>0.04734722979449746</v>
+        <v>0.004416631403829776</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2733,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8448489958030584</v>
+        <v>0.9884526063694045</v>
       </c>
       <c r="C9">
-        <v>0.09555237472973682</v>
+        <v>0.007042678801429867</v>
       </c>
       <c r="D9">
-        <v>0.05959862946720499</v>
+        <v>0.004504714829165766</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2747,13 +2750,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.8163289429228899</v>
+        <v>0.9879412864170313</v>
       </c>
       <c r="C10">
-        <v>0.1099982938785772</v>
+        <v>0.007457320694794575</v>
       </c>
       <c r="D10">
-        <v>0.07367276319853303</v>
+        <v>0.004601392888174215</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2761,13 +2764,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.7850099744332303</v>
+        <v>0.9873968797082142</v>
       </c>
       <c r="C11">
-        <v>0.1253083260656669</v>
+        <v>0.007896024434831502</v>
       </c>
       <c r="D11">
-        <v>0.08968169950110294</v>
+        <v>0.004707095856954292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2775,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.7511800804548867</v>
+        <v>0.9868175791504171</v>
       </c>
       <c r="C12">
-        <v>0.1411295346012589</v>
+        <v>0.008360141568982167</v>
       </c>
       <c r="D12">
-        <v>0.1076903849438545</v>
+        <v>0.004822279280600673</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2789,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.7152788249483393</v>
+        <v>0.9862014807120192</v>
       </c>
       <c r="C13">
-        <v>0.1570181132553657</v>
+        <v>0.008851094047489813</v>
       </c>
       <c r="D13">
-        <v>0.1277030617962952</v>
+        <v>0.004947425240491015</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2803,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.6778815265024765</v>
+        <v>0.9855465791143323</v>
       </c>
       <c r="C14">
-        <v>0.1724657183946339</v>
+        <v>0.009370377213154063</v>
       </c>
       <c r="D14">
-        <v>0.1496527551028899</v>
+        <v>0.005083043672513606</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2817,13 +2820,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.6396650458050106</v>
+        <v>0.9848507634319332</v>
       </c>
       <c r="C15">
-        <v>0.186939044212231</v>
+        <v>0.009919562831662714</v>
       </c>
       <c r="D15">
-        <v>0.1733959099827586</v>
+        <v>0.005229673736404035</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2831,13 +2834,13 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.6013590278423713</v>
+        <v>0.9841118126137947</v>
       </c>
       <c r="C16">
-        <v>0.1999272864072583</v>
+        <v>0.01050030215014058</v>
       </c>
       <c r="D16">
-        <v>0.1987136857503707</v>
+        <v>0.005387885236064777</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2845,13 +2848,13 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.563690075342558</v>
+        <v>0.9833273909402065</v>
       </c>
       <c r="C17">
-        <v>0.2109895497029373</v>
+        <v>0.01111432896939378</v>
       </c>
       <c r="D17">
-        <v>0.2253203749545049</v>
+        <v>0.005558280090399771</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2859,13 +2862,13 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.5273280535005089</v>
+        <v>0.982495043433267</v>
       </c>
       <c r="C18">
-        <v>0.2197937851911355</v>
+        <v>0.01176346271293041</v>
       </c>
       <c r="D18">
-        <v>0.2528781613083558</v>
+        <v>0.005741493853802641</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2873,13 +2876,13 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.4928428918845068</v>
+        <v>0.9816121912418244</v>
       </c>
       <c r="C19">
-        <v>0.2261407935444578</v>
+        <v>0.0124496114731887</v>
       </c>
       <c r="D19">
-        <v>0.2810163145710358</v>
+        <v>0.005938197284986929</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2887,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.4606772570874394</v>
+        <v>0.9806761270251798</v>
       </c>
       <c r="C20">
-        <v>0.2299704856320215</v>
+        <v>0.0131747750124864</v>
       </c>
       <c r="D20">
-        <v>0.3093522572805393</v>
+        <v>0.006149097962333882</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2901,13 +2904,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.4311365277595788</v>
+        <v>0.9796840103636428</v>
       </c>
       <c r="C21">
-        <v>0.2313515973240805</v>
+        <v>0.01394104769300489</v>
       </c>
       <c r="D21">
-        <v>0.3375118749163409</v>
+        <v>0.006374941943352339</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2915,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.4043939814407738</v>
+        <v>0.978632863228185</v>
       </c>
       <c r="C22">
-        <v>0.2304591030157914</v>
+        <v>0.01475062130662516</v>
       </c>
       <c r="D22">
-        <v>0.365146915543435</v>
+        <v>0.006616515465189895</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2929,13 +2932,13 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.3805069157603189</v>
+        <v>0.9775195655459726</v>
       </c>
       <c r="C23">
-        <v>0.2275449612781184</v>
+        <v>0.01560578777162889</v>
       </c>
       <c r="D23">
-        <v>0.391948122961563</v>
+        <v>0.006874646682398507</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2943,13 +2946,13 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.3594387901972699</v>
+        <v>0.9763408509035078</v>
       </c>
       <c r="C24">
-        <v>0.2229075987278741</v>
+        <v>0.01650894165915761</v>
       </c>
       <c r="D24">
-        <v>0.4176536110748563</v>
+        <v>0.007150207437334723</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2957,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.3410830460545369</v>
+        <v>0.975093302434461</v>
       </c>
       <c r="C25">
-        <v>0.2168642418058602</v>
+        <v>0.01746258250788088</v>
       </c>
       <c r="D25">
-        <v>0.4420527121396032</v>
+        <v>0.007444115057658201</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2971,13 +2974,13 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.3252854673270134</v>
+        <v>0.9737733489450642</v>
       </c>
       <c r="C26">
-        <v>0.20972851993609</v>
+        <v>0.01846931688056013</v>
       </c>
       <c r="D26">
-        <v>0.4649860127368969</v>
+        <v>0.007757334174375798</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2985,13 +2988,13 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.311863263446313</v>
+        <v>0.9723772613361316</v>
       </c>
       <c r="C27">
-        <v>0.2017942185048508</v>
+        <v>0.01953186011111268</v>
       </c>
       <c r="D27">
-        <v>0.4863425180488365</v>
+        <v>0.008090878552755913</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2999,13 +3002,13 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.3006201594878544</v>
+        <v>0.9709011493874037</v>
       </c>
       <c r="C28">
-        <v>0.1933249334454928</v>
+        <v>0.02065303768539329</v>
       </c>
       <c r="D28">
-        <v>0.506054907066653</v>
+        <v>0.008445812927203223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3013,13 +3016,13 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.2913575429590529</v>
+        <v>0.9693409589769308</v>
       </c>
       <c r="C29">
-        <v>0.184548725808272</v>
+        <v>0.02183578619323748</v>
       </c>
       <c r="D29">
-        <v>0.5240937312326754</v>
+        <v>0.008823254829831845</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3027,13 +3030,13 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.2838821491391317</v>
+        <v>0.9676924698156162</v>
       </c>
       <c r="C30">
-        <v>0.1756566160171746</v>
+        <v>0.02308315378338298</v>
       </c>
       <c r="D30">
-        <v>0.540461234843694</v>
+        <v>0.009224376401000951</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3041,13 +3044,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.2780109453915193</v>
+        <v>0.965951293784778</v>
       </c>
       <c r="C31">
-        <v>0.1668037666554094</v>
+        <v>0.02439830004674512</v>
       </c>
       <c r="D31">
-        <v>0.5551852879530715</v>
+        <v>0.009650406168477028</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3055,13 +3058,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.2735738887037186</v>
+        <v>0.9641128739726165</v>
       </c>
       <c r="C32">
-        <v>0.1581123590114033</v>
+        <v>0.02578449524722421</v>
       </c>
       <c r="D32">
-        <v>0.5683137522848783</v>
+        <v>0.01010263078015937</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3069,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.2704151557737524</v>
+        <v>0.9621724845137102</v>
       </c>
       <c r="C33">
-        <v>0.1496753820315598</v>
+        <v>0.0272451188128408</v>
       </c>
       <c r="D33">
-        <v>0.5799094621946881</v>
+        <v>0.01058239667344911</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3083,13 +3086,13 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.2683933344377408</v>
+        <v>0.9601252313440237</v>
       </c>
       <c r="C34">
-        <v>0.1415607663360837</v>
+        <v>0.02878365699361757</v>
       </c>
       <c r="D34">
-        <v>0.5900458992261757</v>
+        <v>0.01109111166235881</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3097,13 +3100,13 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.2673809511558582</v>
+        <v>0.9579660539922813</v>
       </c>
       <c r="C35">
-        <v>0.1338154815724014</v>
+        <v>0.0304036995863654</v>
       </c>
       <c r="D35">
-        <v>0.5988035672717404</v>
+        <v>0.0116302464213534</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3111,13 +3114,13 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.2672636078989039</v>
+        <v>0.9556897285367895</v>
       </c>
       <c r="C36">
-        <v>0.1264693621568701</v>
+        <v>0.03210893562051966</v>
       </c>
       <c r="D36">
-        <v>0.6062670299442261</v>
+        <v>0.01220133584269093</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3125,13 +3128,13 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.2679389192100212</v>
+        <v>0.9532908718647272</v>
       </c>
       <c r="C37">
-        <v>0.1195385346451378</v>
+        <v>0.03390314789356875</v>
       </c>
       <c r="D37">
-        <v>0.6125225461448411</v>
+        <v>0.01280598024170409</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3139,13 +3142,13 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.2693153768552402</v>
+        <v>0.9507639473783477</v>
       </c>
       <c r="C38">
-        <v>0.1130283949361837</v>
+        <v>0.03579020623960665</v>
       </c>
       <c r="D38">
-        <v>0.6176562282085762</v>
+        <v>0.01344584638204565</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3153,13 +3156,13 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.2713112230117386</v>
+        <v>0.9481032722992284</v>
       </c>
       <c r="C39">
-        <v>0.1069361322618074</v>
+        <v>0.03777405941033955</v>
       </c>
       <c r="D39">
-        <v>0.6217526447264541</v>
+        <v>0.01412266829043207</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3167,13 +3170,13 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.2738533801394248</v>
+        <v>0.9453030267273865</v>
       </c>
       <c r="C40">
-        <v>0.1012528262394714</v>
+        <v>0.03985872544472767</v>
       </c>
       <c r="D40">
-        <v>0.6248937936211039</v>
+        <v>0.01483824782788584</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3181,13 +3184,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.2768764633224668</v>
+        <v>0.9423572646164471</v>
       </c>
       <c r="C41">
-        <v>0.09596515894254756</v>
+        <v>0.04204828040162435</v>
       </c>
       <c r="D41">
-        <v>0.6271583777349856</v>
+        <v>0.01559445498192857</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3195,13 +3198,13 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.2803218861694412</v>
+        <v>0.9392599268287549</v>
       </c>
       <c r="C42">
-        <v>0.09105679048988301</v>
+        <v>0.04434684532959196</v>
       </c>
       <c r="D42">
-        <v>0.6286213233406758</v>
+        <v>0.0163932278416531</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3209,13 +3212,13 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.2841370620977272</v>
+        <v>0.9360048564349861</v>
       </c>
       <c r="C43">
-        <v>0.0865094474241534</v>
+        <v>0.0467585713498653</v>
       </c>
       <c r="D43">
-        <v>0.6293534904781194</v>
+        <v>0.01723657221514861</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3223,13 +3226,13 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.2882746973085589</v>
+        <v>0.9325858164210148</v>
       </c>
       <c r="C44">
-        <v>0.08230377050480281</v>
+        <v>0.0492876227325624</v>
       </c>
       <c r="D44">
-        <v>0.6294215321866383</v>
+        <v>0.01812656084642277</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3237,13 +3240,13 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.2926921687464002</v>
+        <v>0.9289965099600821</v>
       </c>
       <c r="C45">
-        <v>0.07841996409584288</v>
+        <v>0.05193815785309739</v>
       </c>
       <c r="D45">
-        <v>0.6288878671577569</v>
+        <v>0.01906533218682051</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3251,13 +3254,13 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.2973509789509547</v>
+        <v>0.9252306034002121</v>
       </c>
       <c r="C46">
-        <v>0.07483828413012775</v>
+        <v>0.05471430792573492</v>
       </c>
       <c r="D46">
-        <v>0.6278107369189175</v>
+        <v>0.02005508867405299</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3265,13 +3268,13 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.3022162793431848</v>
+        <v>0.9212817521048443</v>
       </c>
       <c r="C47">
-        <v>0.0715393963308576</v>
+        <v>0.057620153424754</v>
       </c>
       <c r="D47">
-        <v>0.6262443243259576</v>
+        <v>0.02109809447040176</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3279,13 +3282,13 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.3072564537261151</v>
+        <v>0.9171436292682861</v>
       </c>
       <c r="C48">
-        <v>0.06850463134619372</v>
+        <v>0.06065969812117158</v>
       </c>
       <c r="D48">
-        <v>0.6242389149276912</v>
+        <v>0.02219667261054246</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3293,13 +3296,13 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.312442754354637</v>
+        <v>0.9128099578063548</v>
       </c>
       <c r="C49">
-        <v>0.06571615890131519</v>
+        <v>0.06383684068480805</v>
       </c>
       <c r="D49">
-        <v>0.6218410867440478</v>
+        <v>0.02335320150883728</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3307,13 +3310,13 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.3177489836608991</v>
+        <v>0.9082745453959984</v>
       </c>
       <c r="C50">
-        <v>0.06315709907566004</v>
+        <v>0.06715534382802008</v>
       </c>
       <c r="D50">
-        <v>0.6190939172634408</v>
+        <v>0.02457011077598166</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3321,13 +3324,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.323151215504198</v>
+        <v>0.903531322705338</v>
       </c>
       <c r="C51">
-        <v>0.06081158538238909</v>
+        <v>0.07061880099899098</v>
       </c>
       <c r="D51">
-        <v>0.6160371991134128</v>
+        <v>0.02584987629567119</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3335,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.3286275505818607</v>
+        <v>0.898574384817115</v>
       </c>
       <c r="C52">
-        <v>0.05866479143262317</v>
+        <v>0.07423060066928917</v>
       </c>
       <c r="D52">
-        <v>0.6127076579855161</v>
+        <v>0.02719501451359595</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3349,13 +3352,13 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.3341579013546493</v>
+        <v>0.8933980358036929</v>
       </c>
       <c r="C53">
-        <v>0.05670293055815157</v>
+        <v>0.07799388830261529</v>
       </c>
       <c r="D53">
-        <v>0.6091391680871989</v>
+        <v>0.02860807589369189</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3363,13 +3366,13 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.3397238024894407</v>
+        <v>0.8879968363604351</v>
       </c>
       <c r="C54">
-        <v>0.05491323578398877</v>
+        <v>0.08191152613926361</v>
       </c>
       <c r="D54">
-        <v>0.6053629617265703</v>
+        <v>0.0300916375003013</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3377,13 +3380,13 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.3453082433974966</v>
+        <v>0.8823656543464991</v>
       </c>
       <c r="C55">
-        <v>0.05328392592625369</v>
+        <v>0.08598605098366963</v>
       </c>
       <c r="D55">
-        <v>0.6014078306762496</v>
+        <v>0.03164829466983133</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3391,13 +3394,13 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.3508955199495103</v>
+        <v>0.8764997180180785</v>
       </c>
       <c r="C56">
-        <v>0.05180416228448461</v>
+        <v>0.09021963024016298</v>
       </c>
       <c r="D56">
-        <v>0.5973003177660049</v>
+        <v>0.03328065174175859</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3405,13 +3408,13 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.3564711028834897</v>
+        <v>0.8703946716693653</v>
       </c>
       <c r="C57">
-        <v>0.05046399934922494</v>
+        <v>0.09461401650413431</v>
       </c>
       <c r="D57">
-        <v>0.5930648977672852</v>
+        <v>0.03499131182650032</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3419,13 +3422,13 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.3620215207949522</v>
+        <v>0.8640466333217129</v>
       </c>
       <c r="C58">
-        <v>0.04925433211033838</v>
+        <v>0.09917050108145375</v>
       </c>
       <c r="D58">
-        <v>0.5887241470947092</v>
+        <v>0.03678286559683335</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3433,13 +3436,13 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.3675342559180422</v>
+        <v>0.8574522540226829</v>
       </c>
       <c r="C59">
-        <v>0.04816684189022072</v>
+        <v>0.103889866877079</v>
       </c>
       <c r="D59">
-        <v>0.5842989021917369</v>
+        <v>0.03865787910023824</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3447,13 +3450,13 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.3729976511781147</v>
+        <v>0.8506087782351937</v>
       </c>
       <c r="C60">
-        <v>0.04719394210606275</v>
+        <v>0.1087723411630116</v>
       </c>
       <c r="D60">
-        <v>0.5798084067158222</v>
+        <v>0.04061888060179492</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3461,13 +3464,13 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.3784008272277116</v>
+        <v>0.8435141047145031</v>
       </c>
       <c r="C61">
-        <v>0.04632872495921003</v>
+        <v>0.1138175488044633</v>
       </c>
       <c r="D61">
-        <v>0.5752704478130781</v>
+        <v>0.04266834648103379</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3475,13 +3478,13 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.3837336083746503</v>
+        <v>0.8361668471892553</v>
       </c>
       <c r="C62">
-        <v>0.04556490973485421</v>
+        <v>0.1190244665893581</v>
       </c>
       <c r="D62">
-        <v>0.5707014818904953</v>
+        <v>0.04480868622138668</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3489,13 +3492,13 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.3889864564784127</v>
+        <v>0.8285663940845954</v>
       </c>
       <c r="C63">
-        <v>0.04489679315327308</v>
+        <v>0.12439137936794</v>
       </c>
       <c r="D63">
-        <v>0.566116750368314</v>
+        <v>0.04704222654746468</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3503,13 +3506,13 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.3941504120336713</v>
+        <v>0.8207129664529907</v>
       </c>
       <c r="C64">
-        <v>0.04431920202957667</v>
+        <v>0.129915838763869</v>
       </c>
       <c r="D64">
-        <v>0.5615303859367518</v>
+        <v>0.04937119478314043</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3517,13 +3520,13 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.3992170417814742</v>
+        <v>0.8126076732147087</v>
       </c>
       <c r="C65">
-        <v>0.04382744836028268</v>
+        <v>0.135594625263198</v>
       </c>
       <c r="D65">
-        <v>0.5569555098582429</v>
+        <v>0.05179770152209339</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3531,13 +3534,13 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.4041783922925374</v>
+        <v>0.8042525627578635</v>
       </c>
       <c r="C66">
-        <v>0.04341728685230798</v>
+        <v>0.1414237145203467</v>
       </c>
       <c r="D66">
-        <v>0.5524043208551545</v>
+        <v>0.05432372272178997</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3545,13 +3548,13 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.4090269490559253</v>
+        <v>0.7956506699105877</v>
       </c>
       <c r="C67">
-        <v>0.04308487483537289</v>
+        <v>0.1473982487379587</v>
       </c>
       <c r="D67">
-        <v>0.5478881761087016</v>
+        <v>0.05695108135145362</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3559,13 +3562,13 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.4137556006823092</v>
+        <v>0.7868060572782135</v>
       </c>
       <c r="C68">
-        <v>0.04282673444623512</v>
+        <v>0.1535125139777758</v>
       </c>
       <c r="D68">
-        <v>0.5434176648714554</v>
+        <v>0.05968142874401083</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3573,13 +3576,13 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.4183576078957332</v>
+        <v>0.7777238499391492</v>
       </c>
       <c r="C69">
-        <v>0.04263971693777588</v>
+        <v>0.1597599242400501</v>
       </c>
       <c r="D69">
-        <v>0.5390026751664907</v>
+        <v>0.06251622582080085</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3587,13 +3590,13 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.4228265770427656</v>
+        <v>0.7684102625169147</v>
       </c>
       <c r="C70">
-        <v>0.04252096894398901</v>
+        <v>0.1661330131075992</v>
       </c>
       <c r="D70">
-        <v>0.5346524540132451</v>
+        <v>0.06545672437548622</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3601,13 +3604,13 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.4271564378941484</v>
+        <v>0.7588726176945308</v>
       </c>
       <c r="C71">
-        <v>0.04246790052046521</v>
+        <v>0.1726234336859262</v>
       </c>
       <c r="D71">
-        <v>0.5303756615853862</v>
+        <v>0.06850394861954309</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3615,13 +3618,13 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.4313414255523716</v>
+        <v>0.7491193553125333</v>
       </c>
       <c r="C72">
-        <v>0.04247815477679073</v>
+        <v>0.1792219674820986</v>
       </c>
       <c r="D72">
-        <v>0.5261804196708375</v>
+        <v>0.07165867720536824</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3629,13 +3632,13 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.4353760663095831</v>
+        <v>0.7391600312938693</v>
       </c>
       <c r="C73">
-        <v>0.04254957892071137</v>
+        <v>0.1859185427522884</v>
       </c>
       <c r="D73">
-        <v>0.5220743547697054</v>
+        <v>0.07492142595384249</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3643,13 +3646,13 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.439255167324269</v>
+        <v>0.7290053057675437</v>
       </c>
       <c r="C74">
-        <v>0.04268019654269205</v>
+        <v>0.1927022627118715</v>
       </c>
       <c r="D74">
-        <v>0.5180646361330389</v>
+        <v>0.078292431520585</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3657,13 +3660,13 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.442973810002451</v>
+        <v>0.7186669199167757</v>
       </c>
       <c r="C75">
-        <v>0.04286818098270893</v>
+        <v>0.1995614438446107</v>
       </c>
       <c r="D75">
-        <v>0.51415800901484</v>
+        <v>0.08177163623861385</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3671,13 +3674,13 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.4465273469798439</v>
+        <v>0.7081576612542639</v>
       </c>
       <c r="C76">
-        <v>0.04311182963807381</v>
+        <v>0.2064836643714777</v>
       </c>
       <c r="D76">
-        <v>0.5103608233820822</v>
+        <v>0.08535867437425854</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3685,13 +3688,13 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.4499114026055295</v>
+        <v>0.6974913172234963</v>
       </c>
       <c r="C77">
-        <v>0.04340953909132688</v>
+        <v>0.2134558227488977</v>
       </c>
       <c r="D77">
-        <v>0.5066790583031434</v>
+        <v>0.08905286002760621</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3699,13 +3702,13 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.4531218768251887</v>
+        <v>0.6866826172364396</v>
       </c>
       <c r="C78">
-        <v>0.04375978096038468</v>
+        <v>0.2204642058652851</v>
       </c>
       <c r="D78">
-        <v>0.5031183422144264</v>
+        <v>0.09285317689827556</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3713,13 +3716,13 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.4561549523527409</v>
+        <v>0.6757471634790653</v>
       </c>
       <c r="C79">
-        <v>0.04416107839891426</v>
+        <v>0.2274945663991266</v>
       </c>
       <c r="D79">
-        <v>0.4996839692483446</v>
+        <v>0.09675827012180846</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3727,13 +3730,13 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.4590071050033313</v>
+        <v>0.6647013510408968</v>
       </c>
       <c r="C80">
-        <v>0.04461198320307049</v>
+        <v>0.2345322085976004</v>
       </c>
       <c r="D80">
-        <v>0.496380911793598</v>
+        <v>0.1007664403615031</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3741,13 +3744,13 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.4616751170379832</v>
+        <v>0.6535622781464937</v>
       </c>
       <c r="C81">
-        <v>0.04511105351101733</v>
+        <v>0.241562081538207</v>
       </c>
       <c r="D81">
-        <v>0.4932138294509992</v>
+        <v>0.1048756403152996</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3755,13 +3758,13 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.4641560933410273</v>
+        <v>0.6423476474786118</v>
       </c>
       <c r="C82">
-        <v>0.04565683211374547</v>
+        <v>0.2485688787536418</v>
       </c>
       <c r="D82">
-        <v>0.4901870745452269</v>
+        <v>0.1090834737677466</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3769,13 +3772,13 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.4664474802158515</v>
+        <v>0.6310756597778439</v>
       </c>
       <c r="C83">
-        <v>0.04624782542920394</v>
+        <v>0.2555371429384984</v>
       </c>
       <c r="D83">
-        <v>0.4873046943549443</v>
+        <v>0.113387197283658</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3783,13 +3786,13 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.4685470865430406</v>
+        <v>0.6197649010753089</v>
       </c>
       <c r="C84">
-        <v>0.04688248322617927</v>
+        <v>0.2624513743211956</v>
       </c>
       <c r="D84">
-        <v>0.4845704302307798</v>
+        <v>0.1177837246034957</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3797,13 +3800,13 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.4704531069982185</v>
+        <v>0.6084342250575426</v>
       </c>
       <c r="C85">
-        <v>0.04755917921904276</v>
+        <v>0.2692961411808611</v>
       </c>
       <c r="D85">
-        <v>0.4819877137827385</v>
+        <v>0.1222696337615965</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3811,13 +3814,13 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.4721641469757866</v>
+        <v>0.5971026321711815</v>
       </c>
       <c r="C86">
-        <v>0.04827619268865628</v>
+        <v>0.2760561909208193</v>
       </c>
       <c r="D86">
-        <v>0.4795596603355569</v>
+        <v>0.1268411769079993</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3825,13 +3828,13 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.4736792488104606</v>
+        <v>0.5857891471455497</v>
       </c>
       <c r="C87">
-        <v>0.04903169131742769</v>
+        <v>0.2827165600806305</v>
       </c>
       <c r="D87">
-        <v>0.4772890598721113</v>
+        <v>0.13149429277382</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3839,13 +3842,13 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.4749979188325374</v>
+        <v>0.5745126966414245</v>
       </c>
       <c r="C88">
-        <v>0.04982371545663174</v>
+        <v>0.2892626816787176</v>
       </c>
       <c r="D88">
-        <v>0.4751783657108305</v>
+        <v>0.1362246216798582</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3853,13 +3856,13 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.4761201547369917</v>
+        <v>0.5632919887231459</v>
       </c>
       <c r="C89">
-        <v>0.05065016407040752</v>
+        <v>0.2956804883274202</v>
       </c>
       <c r="D89">
-        <v>0.4732296811926004</v>
+        <v>0.1410275229494341</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3867,13 +3870,13 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.4770464726929198</v>
+        <v>0.5521453957994342</v>
       </c>
       <c r="C90">
-        <v>0.05150878262194022</v>
+        <v>0.3019565096502625</v>
       </c>
       <c r="D90">
-        <v>0.4714447446851396</v>
+        <v>0.1458980945503034</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3881,13 +3884,13 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.4777779335708899</v>
+        <v>0.5410908425878702</v>
       </c>
       <c r="C91">
-        <v>0.05239715318179078</v>
+        <v>0.3080779626543534</v>
       </c>
       <c r="D91">
-        <v>0.4698249132473189</v>
+        <v>0.1508311947577765</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3895,13 +3898,13 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.47831616762402</v>
+        <v>0.5301457005324435</v>
       </c>
       <c r="C92">
-        <v>0.05331268704469729</v>
+        <v>0.3140328338648922</v>
       </c>
       <c r="D92">
-        <v>0.4683711453312823</v>
+        <v>0.1558214656026645</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3909,13 +3912,13 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.4786633969268045</v>
+        <v>0.5193266899475251</v>
       </c>
       <c r="C93">
-        <v>0.05425262013803898</v>
+        <v>0.319809952208448</v>
       </c>
       <c r="D93">
-        <v>0.4670839829351561</v>
+        <v>0.160863357844027</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3923,13 +3926,13 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.4788224548565937</v>
+        <v>0.5086497909806914</v>
       </c>
       <c r="C94">
-        <v>0.0552140114912836</v>
+        <v>0.3253990518309224</v>
       </c>
       <c r="D94">
-        <v>0.4659635336521222</v>
+        <v>0.1659511571883863</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3937,13 +3940,13 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.4787968018988271</v>
+        <v>0.4981301642872892</v>
       </c>
       <c r="C95">
-        <v>0.0561937450101282</v>
+        <v>0.3307908242482921</v>
       </c>
       <c r="D95">
-        <v>0.4650094530910442</v>
+        <v>0.1710790114644189</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3951,13 +3954,13 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.4785905370710149</v>
+        <v>0.4877820820981501</v>
       </c>
       <c r="C96">
-        <v>0.0571885347610416</v>
+        <v>0.335976959446583</v>
       </c>
       <c r="D96">
-        <v>0.4642209281679431</v>
+        <v>0.176240958455267</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3965,13 +3968,13 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.4782084042940132</v>
+        <v>0.4776188701451586</v>
       </c>
       <c r="C97">
-        <v>0.05819493392131953</v>
+        <v>0.3409501757653572</v>
       </c>
       <c r="D97">
-        <v>0.4635966617846669</v>
+        <v>0.1814309540894843</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3979,13 +3982,13 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.4776557930937178</v>
+        <v>0.4676528606939633</v>
       </c>
       <c r="C98">
-        <v>0.05920934748690682</v>
+        <v>0.3457042386100012</v>
       </c>
       <c r="D98">
-        <v>0.463134859419375</v>
+        <v>0.1866429006960356</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3993,13 +3996,13 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.476938733092554</v>
+        <v>0.4578953567250303</v>
       </c>
       <c r="C99">
-        <v>0.06022804875607041</v>
+        <v>0.3502339682366168</v>
       </c>
       <c r="D99">
-        <v>0.4628332181513752</v>
+        <v>0.191870675038353</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4007,13 +4010,13 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.4760638818478301</v>
+        <v>0.4483566071088129</v>
       </c>
       <c r="C100">
-        <v>0.06124719952312221</v>
+        <v>0.3545352370344724</v>
       </c>
       <c r="D100">
-        <v>0.4626889186290474</v>
+        <v>0.1971081558567148</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4021,13 +4024,13 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.4750385057119363</v>
+        <v>0.4390457924425508</v>
       </c>
       <c r="C101">
-        <v>0.06226287382504945</v>
+        <v>0.3586049568908687</v>
       </c>
       <c r="D101">
-        <v>0.4626986204630139</v>
+        <v>0.2023492506665807</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4035,13 +4038,13 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.4738704535252836</v>
+        <v>0.4299710210586418</v>
       </c>
       <c r="C102">
-        <v>0.06327108498799401</v>
+        <v>0.3624410573590505</v>
       </c>
       <c r="D102">
-        <v>0.4628584614867221</v>
+        <v>0.2075879215823078</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4049,13 +4052,13 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.4725681231035245</v>
+        <v>0.4211393345801782</v>
       </c>
       <c r="C103">
-        <v>0.06426781562345033</v>
+        <v>0.366042455459631</v>
       </c>
       <c r="D103">
-        <v>0.4631640612730248</v>
+        <v>0.2128182099601909</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4063,13 +4066,13 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.4711404206417872</v>
+        <v>0.4125567222896184</v>
       </c>
       <c r="C104">
-        <v>0.06524905012964882</v>
+        <v>0.3694090180291156</v>
       </c>
       <c r="D104">
-        <v>0.4636105292285637</v>
+        <v>0.2180342596812661</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4077,13 +4080,13 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.4695967133253557</v>
+        <v>0.4042281434922287</v>
       </c>
       <c r="C105">
-        <v>0.06621080916591673</v>
+        <v>0.3725415175856798</v>
       </c>
       <c r="D105">
-        <v>0.4641924775087272</v>
+        <v>0.2232303389220916</v>
       </c>
     </row>
   </sheetData>
